--- a/log/fusion_mask_exp/fusion_mask__results.xlsx
+++ b/log/fusion_mask_exp/fusion_mask__results.xlsx
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.978182065486908</v>
+        <v>3.951152007579803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002</v>
+        <v>0.03</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3507266044616699</v>
+        <v>2.68059229850769</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5238180477917195</v>
+        <v>3.001967792510986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.899</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>59.72834444046021</v>
+        <v>27.32825636863708</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +486,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2836535949632525</v>
+        <v>1.057188200950623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.927</v>
+        <v>0.694</v>
       </c>
       <c r="D4" t="n">
-        <v>120.9133920669556</v>
+        <v>52.1268208026886</v>
       </c>
     </row>
     <row r="5">
@@ -500,13 +500,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2223801850527525</v>
+        <v>0.2771856538020074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="D5" t="n">
-        <v>182.4452257156372</v>
+        <v>76.70051980018616</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1909061444830149</v>
+        <v>0.1732638166518882</v>
       </c>
       <c r="C6" t="n">
         <v>0.951</v>
       </c>
       <c r="D6" t="n">
-        <v>244.1769952774048</v>
+        <v>101.2799408435822</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1754693427123129</v>
+        <v>0.1527658134023659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.955</v>
+        <v>0.951</v>
       </c>
       <c r="D7" t="n">
-        <v>305.5086863040924</v>
+        <v>125.8137309551239</v>
       </c>
     </row>
     <row r="8">
@@ -542,13 +542,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1635935481963679</v>
+        <v>0.1458780088409549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.958</v>
+        <v>0.96</v>
       </c>
       <c r="D8" t="n">
-        <v>368.2126185894012</v>
+        <v>150.5141415596008</v>
       </c>
     </row>
     <row r="9">
@@ -556,13 +556,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1489992190804333</v>
+        <v>0.1301407044196094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.961</v>
+        <v>0.963</v>
       </c>
       <c r="D9" t="n">
-        <v>429.3246812820435</v>
+        <v>175.2499647140503</v>
       </c>
     </row>
     <row r="10">
@@ -570,13 +570,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1431558553734794</v>
+        <v>0.1970259943578276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.966</v>
+        <v>0.948</v>
       </c>
       <c r="D10" t="n">
-        <v>490.1080613136292</v>
+        <v>199.9129881858826</v>
       </c>
     </row>
     <row r="11">
@@ -584,13 +584,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1373877822095528</v>
+        <v>0.130872815755356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.968</v>
+        <v>0.965</v>
       </c>
       <c r="D11" t="n">
-        <v>550.7176313400269</v>
+        <v>224.4738941192627</v>
       </c>
     </row>
     <row r="12">
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1289432278927416</v>
+        <v>0.1862283144854882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.971</v>
+        <v>0.953</v>
       </c>
       <c r="D12" t="n">
-        <v>613.0978894233704</v>
+        <v>249.2513072490692</v>
       </c>
     </row>
   </sheetData>
@@ -627,11 +627,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
@@ -663,20 +663,20 @@
     <col width="21" customWidth="1" min="35" max="35"/>
     <col width="21" customWidth="1" min="36" max="36"/>
     <col width="15" customWidth="1" min="37" max="37"/>
-    <col width="21" customWidth="1" min="38" max="38"/>
-    <col width="21" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
     <col width="15" customWidth="1" min="40" max="40"/>
     <col width="21" customWidth="1" min="41" max="41"/>
     <col width="21" customWidth="1" min="42" max="42"/>
     <col width="15" customWidth="1" min="43" max="43"/>
-    <col width="21" customWidth="1" min="44" max="44"/>
-    <col width="21" customWidth="1" min="45" max="45"/>
+    <col width="20" customWidth="1" min="44" max="44"/>
+    <col width="20" customWidth="1" min="45" max="45"/>
     <col width="15" customWidth="1" min="46" max="46"/>
-    <col width="21" customWidth="1" min="47" max="47"/>
-    <col width="21" customWidth="1" min="48" max="48"/>
+    <col width="20" customWidth="1" min="47" max="47"/>
+    <col width="20" customWidth="1" min="48" max="48"/>
     <col width="15" customWidth="1" min="49" max="49"/>
-    <col width="21" customWidth="1" min="50" max="50"/>
-    <col width="21" customWidth="1" min="51" max="51"/>
+    <col width="20" customWidth="1" min="50" max="50"/>
+    <col width="20" customWidth="1" min="51" max="51"/>
     <col width="15" customWidth="1" min="52" max="52"/>
     <col width="21" customWidth="1" min="53" max="53"/>
     <col width="21" customWidth="1" min="54" max="54"/>
@@ -1108,181 +1108,181 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06014753699040739</v>
+        <v>0.04094501495361328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06014753699040739</v>
+        <v>0.04094501495361328</v>
       </c>
       <c r="D4" t="n">
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07140147807949689</v>
+        <v>0.04101921558380127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07140147807949689</v>
+        <v>0.04101921558380127</v>
       </c>
       <c r="G4" t="n">
         <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4437631319835782</v>
+        <v>0.3320815518832674</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4437631319835782</v>
+        <v>0.3320815518832674</v>
       </c>
       <c r="J4" t="n">
         <v>0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3064300647750497</v>
+        <v>0.3886073410717492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3064300647750497</v>
+        <v>0.3886073410717492</v>
       </c>
       <c r="M4" t="n">
         <v>0.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3955357192270458</v>
+        <v>0.6096208544960245</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3955357192270458</v>
+        <v>0.6096208544960245</v>
       </c>
       <c r="P4" t="n">
         <v>0.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6556902441382408</v>
+        <v>0.4386018795578275</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6556902441382408</v>
+        <v>0.4386018795578275</v>
       </c>
       <c r="S4" t="n">
         <v>0.01</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5495159959048033</v>
+        <v>1.161975431358442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5495159959048033</v>
+        <v>1.161975431358442</v>
       </c>
       <c r="V4" t="n">
         <v>0.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5532662820070982</v>
+        <v>0.4733217794343363</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5532662820070982</v>
+        <v>0.4733217794343363</v>
       </c>
       <c r="Y4" t="n">
         <v>0.01</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7586124319583177</v>
+        <v>1.070831120535731</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7586124319583177</v>
+        <v>1.070831120535731</v>
       </c>
       <c r="AB4" t="n">
         <v>0.01</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7572399948537349</v>
+        <v>3.413188397884369</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7572399948537349</v>
+        <v>3.413188397884369</v>
       </c>
       <c r="AE4" t="n">
         <v>0.01</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8935408031940461</v>
+        <v>1.187666018232703</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.8935408031940461</v>
+        <v>1.187666018232703</v>
       </c>
       <c r="AH4" t="n">
         <v>0.01</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8568799130059779</v>
+        <v>0.8958612853940576</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8568799130059779</v>
+        <v>0.8958612853940576</v>
       </c>
       <c r="AK4" t="n">
         <v>0.01</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.092161597795784</v>
+        <v>1.067700760238804</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.092161597795784</v>
+        <v>1.067700760238804</v>
       </c>
       <c r="AN4" t="n">
         <v>0.01</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.107439040243626</v>
+        <v>3.566042263507843</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.107439040243626</v>
+        <v>3.566042263507843</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.01</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.325393327474594</v>
+        <v>1.409802305586636</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.325393327474594</v>
+        <v>1.409802305586636</v>
       </c>
       <c r="AT4" t="n">
         <v>0.01</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.35020891726017</v>
+        <v>1.535093680471182</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.35020891726017</v>
+        <v>1.535093680471182</v>
       </c>
       <c r="AW4" t="n">
         <v>0.01</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.390337603986263</v>
+        <v>3.517430973052979</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.390337603986263</v>
+        <v>3.517430973052979</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.01</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.393217480480671</v>
+        <v>3.534332959651947</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.393217480480671</v>
+        <v>3.534332959651947</v>
       </c>
       <c r="BC4" t="n">
         <v>0.01</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.553124831020832</v>
+        <v>3.593182237148285</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.553124831020832</v>
+        <v>3.593182237148285</v>
       </c>
       <c r="BF4" t="n">
         <v>0.01</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.528127684891224</v>
+        <v>3.687488875389099</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.528127684891224</v>
+        <v>3.687488875389099</v>
       </c>
       <c r="BI4" t="n">
         <v>0.01</v>
@@ -1293,181 +1293,181 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05104200001325807</v>
+        <v>0.05001582011580467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05104200001325807</v>
+        <v>0.05001582011580467</v>
       </c>
       <c r="D5" t="n">
         <v>0.01</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05242197968938853</v>
+        <v>0.04968887224793434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05242197968938853</v>
+        <v>0.04968887224793434</v>
       </c>
       <c r="G5" t="n">
         <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3944967511482537</v>
+        <v>0.2160856688633146</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3944967511482537</v>
+        <v>0.2160856688633146</v>
       </c>
       <c r="J5" t="n">
         <v>0.01</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2275044413469732</v>
+        <v>0.3097846282528894</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2275044413469732</v>
+        <v>0.3097846282528894</v>
       </c>
       <c r="M5" t="n">
         <v>0.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2529045029729605</v>
+        <v>0.5070480051285995</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2529045029729605</v>
+        <v>0.5070480051285995</v>
       </c>
       <c r="P5" t="n">
         <v>0.01</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4617268603667617</v>
+        <v>0.3954433959639391</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4617268603667617</v>
+        <v>0.3954433959639391</v>
       </c>
       <c r="S5" t="n">
         <v>0.01</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3321219362411648</v>
+        <v>0.4186020127935626</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3321219362411648</v>
+        <v>0.4186020127935626</v>
       </c>
       <c r="V5" t="n">
         <v>0.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3410472977161407</v>
+        <v>0.4619171550212195</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3410472977161407</v>
+        <v>0.4619171550212195</v>
       </c>
       <c r="Y5" t="n">
         <v>0.01</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5048251240327954</v>
+        <v>0.6307609771378339</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5048251240327954</v>
+        <v>0.6307609771378339</v>
       </c>
       <c r="AB5" t="n">
         <v>0.01</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4885398593172431</v>
+        <v>0.5734462848116527</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4885398593172431</v>
+        <v>0.5734462848116527</v>
       </c>
       <c r="AE5" t="n">
         <v>0.01</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3205362439155579</v>
+        <v>0.7481901234854013</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3205362439155579</v>
+        <v>0.7481901234854013</v>
       </c>
       <c r="AH5" t="n">
         <v>0.01</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.3768088863417506</v>
+        <v>0.989125506952405</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3768088863417506</v>
+        <v>0.989125506952405</v>
       </c>
       <c r="AK5" t="n">
         <v>0.01</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4207298278063536</v>
+        <v>0.7692947506415657</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.4207298278063536</v>
+        <v>0.7692947506415657</v>
       </c>
       <c r="AN5" t="n">
         <v>0.01</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.4610000075772405</v>
+        <v>0.7831778538972139</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.4610000075772405</v>
+        <v>0.7831778538972139</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.01</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.5400493951141834</v>
+        <v>0.7675208350378671</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5400493951141834</v>
+        <v>0.7675208350378671</v>
       </c>
       <c r="AT5" t="n">
         <v>0.01</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.526900806427002</v>
+        <v>0.8141358008747921</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.526900806427002</v>
+        <v>0.8141358008747921</v>
       </c>
       <c r="AW5" t="n">
         <v>0.01</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.4995433424785733</v>
+        <v>1.19772295832634</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.4995433424785733</v>
+        <v>1.19772295832634</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.01</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.561392847597599</v>
+        <v>0.8591516759805381</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.561392847597599</v>
+        <v>0.8591516759805381</v>
       </c>
       <c r="BC5" t="n">
         <v>0.01</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.522808076813817</v>
+        <v>2.828796184062958</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.522808076813817</v>
+        <v>2.828796184062958</v>
       </c>
       <c r="BF5" t="n">
         <v>0.01</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.5205654244869947</v>
+        <v>2.778356137275696</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.5205654244869947</v>
+        <v>2.778356137275696</v>
       </c>
       <c r="BI5" t="n">
         <v>0.01</v>
@@ -1478,181 +1478,181 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04792979831574485</v>
+        <v>0.01499544858932495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04792979831574485</v>
+        <v>0.01499544858932495</v>
       </c>
       <c r="D6" t="n">
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05194483906205278</v>
+        <v>0.02196048736572266</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05194483906205278</v>
+        <v>0.02196048736572266</v>
       </c>
       <c r="G6" t="n">
         <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.325058541726321</v>
+        <v>0.4582472468632613</v>
       </c>
       <c r="I6" t="n">
-        <v>0.325058541726321</v>
+        <v>0.4582472468632613</v>
       </c>
       <c r="J6" t="n">
         <v>0.01</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2104971360508353</v>
+        <v>0.3806029230715147</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2104971360508353</v>
+        <v>0.3806029230715147</v>
       </c>
       <c r="M6" t="n">
         <v>0.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2068868623906747</v>
+        <v>0.7687767369917128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2068868623906747</v>
+        <v>0.7687767369917128</v>
       </c>
       <c r="P6" t="n">
         <v>0.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4080871859937906</v>
+        <v>0.5358044436547061</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4080871859937906</v>
+        <v>0.5358044436547061</v>
       </c>
       <c r="S6" t="n">
         <v>0.01</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2868231230042875</v>
+        <v>0.9365419563581235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2868231230042875</v>
+        <v>0.9365419563581235</v>
       </c>
       <c r="V6" t="n">
         <v>0.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3153147042170167</v>
+        <v>0.6047836552666559</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3153147042170167</v>
+        <v>0.6047836552666559</v>
       </c>
       <c r="Y6" t="n">
         <v>0.01</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4176945437584073</v>
+        <v>1.042655838997161</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4176945437584073</v>
+        <v>1.042655838997161</v>
       </c>
       <c r="AB6" t="n">
         <v>0.01</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3707103029638529</v>
+        <v>0.8618744038315117</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3707103029638529</v>
+        <v>0.8618744038315117</v>
       </c>
       <c r="AE6" t="n">
         <v>0.01</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.257805112618953</v>
+        <v>1.217849266994744</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.257805112618953</v>
+        <v>1.217849266994744</v>
       </c>
       <c r="AH6" t="n">
         <v>0.01</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.3072873696871102</v>
+        <v>1.189403832023963</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.3072873696871102</v>
+        <v>1.189403832023963</v>
       </c>
       <c r="AK6" t="n">
         <v>0.01</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.3000191191770136</v>
+        <v>1.002428621948347</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.3000191191770136</v>
+        <v>1.002428621948347</v>
       </c>
       <c r="AN6" t="n">
         <v>0.01</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3419897490367294</v>
+        <v>1.171093578599393</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.3419897490367294</v>
+        <v>1.171093578599393</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.396935632713139</v>
+        <v>8.139872516840697</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.396935632713139</v>
+        <v>8.139872516840697</v>
       </c>
       <c r="AT6" t="n">
         <v>0.01</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.365496244058013</v>
+        <v>1.214274064600468</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.365496244058013</v>
+        <v>1.214274064600468</v>
       </c>
       <c r="AW6" t="n">
         <v>0.01</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.3516352274268866</v>
+        <v>0.8790402030572295</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.3516352274268866</v>
+        <v>0.8790402030572295</v>
       </c>
       <c r="AZ6" t="n">
         <v>0.01</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.4220027647912502</v>
+        <v>2.335565530359745</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4220027647912502</v>
+        <v>2.335565530359745</v>
       </c>
       <c r="BC6" t="n">
         <v>0.01</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.373892757743597</v>
+        <v>0.689657233725302</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.373892757743597</v>
+        <v>0.689657233725302</v>
       </c>
       <c r="BF6" t="n">
         <v>0.01</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.364715605378151</v>
+        <v>0.7503151361260098</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.364715605378151</v>
+        <v>0.7503151361260098</v>
       </c>
       <c r="BI6" t="n">
         <v>0.01</v>
@@ -1663,181 +1663,181 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04828442298923619</v>
+        <v>5.883988924324512e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04828442298923619</v>
+        <v>5.883988924324512e-05</v>
       </c>
       <c r="D7" t="n">
         <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04991326122602913</v>
+        <v>0.003527632355690002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04991326122602913</v>
+        <v>0.003527632355690002</v>
       </c>
       <c r="G7" t="n">
         <v>0.01</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3253877873159945</v>
+        <v>0.6352374259825507</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3253877873159945</v>
+        <v>0.6352374259825507</v>
       </c>
       <c r="J7" t="n">
         <v>0.01</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1955376554094255</v>
+        <v>1.620887469459535</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1955376554094255</v>
+        <v>1.620887469459535</v>
       </c>
       <c r="M7" t="n">
         <v>0.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1755081106582657</v>
+        <v>1.658888188369151</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1755081106582657</v>
+        <v>1.658888188369151</v>
       </c>
       <c r="P7" t="n">
         <v>0.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3896353888139129</v>
+        <v>0.5506597065286523</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3896353888139129</v>
+        <v>0.5506597065286523</v>
       </c>
       <c r="S7" t="n">
         <v>0.01</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2446833074465394</v>
+        <v>1.127737367372756</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2446833074465394</v>
+        <v>1.127737367372756</v>
       </c>
       <c r="V7" t="n">
         <v>0.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0.272764929421246</v>
+        <v>1.523532454802929</v>
       </c>
       <c r="X7" t="n">
-        <v>0.272764929421246</v>
+        <v>1.523532454802929</v>
       </c>
       <c r="Y7" t="n">
         <v>0.01</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3703440760448575</v>
+        <v>1.315650480638724</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3703440760448575</v>
+        <v>1.315650480638724</v>
       </c>
       <c r="AB7" t="n">
         <v>0.01</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3194160296116024</v>
+        <v>1.118238805409425</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3194160296116024</v>
+        <v>1.118238805409425</v>
       </c>
       <c r="AE7" t="n">
         <v>0.01</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2061908257100731</v>
+        <v>2.145676190722734</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2061908257100731</v>
+        <v>2.145676190722734</v>
       </c>
       <c r="AH7" t="n">
         <v>0.01</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2569249112904072</v>
+        <v>0.9679159653699025</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2569249112904072</v>
+        <v>0.9679159653699025</v>
       </c>
       <c r="AK7" t="n">
         <v>0.01</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.2382160053215921</v>
+        <v>1.146335112389952</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.2382160053215921</v>
+        <v>1.146335112389952</v>
       </c>
       <c r="AN7" t="n">
         <v>0.01</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2971300339885056</v>
+        <v>1.920092337153328</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.2971300339885056</v>
+        <v>1.920092337153328</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.01</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3288255263864994</v>
+        <v>9.731714835867024</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3288255263864994</v>
+        <v>9.731714835867024</v>
       </c>
       <c r="AT7" t="n">
         <v>0.01</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3121898581832647</v>
+        <v>3.710604052995332</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.3121898581832647</v>
+        <v>3.710604052995332</v>
       </c>
       <c r="AW7" t="n">
         <v>0.01</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2797871082276106</v>
+        <v>1.808249510750175</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.2797871082276106</v>
+        <v>1.808249510750175</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3463143357634544</v>
+        <v>1.671988178878091</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.3463143357634544</v>
+        <v>1.671988178878091</v>
       </c>
       <c r="BC7" t="n">
         <v>0.01</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.3009979116171598</v>
+        <v>0.4507940939813853</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.3009979116171598</v>
+        <v>0.4507940939813853</v>
       </c>
       <c r="BF7" t="n">
         <v>0.01</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.2836982613243162</v>
+        <v>0.4515773499011994</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2836982613243162</v>
+        <v>0.4515773499011994</v>
       </c>
       <c r="BI7" t="n">
         <v>0.01</v>
@@ -1848,181 +1848,181 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04807762281736359</v>
+        <v>0.613028564453125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04807762281736359</v>
+        <v>0.613028564453125</v>
       </c>
       <c r="D8" t="n">
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05024443919362966</v>
+        <v>0.08021697044372558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05024443919362966</v>
+        <v>0.08021697044372558</v>
       </c>
       <c r="G8" t="n">
         <v>0.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2783882156014442</v>
+        <v>0.3127728853283693</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2783882156014442</v>
+        <v>0.3127728853283693</v>
       </c>
       <c r="J8" t="n">
         <v>0.01</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1741900969296694</v>
+        <v>0.4567973504452414</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1741900969296694</v>
+        <v>0.4567973504452414</v>
       </c>
       <c r="M8" t="n">
         <v>0.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1680941513041034</v>
+        <v>0.5113760300668492</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1680941513041034</v>
+        <v>0.5113760300668492</v>
       </c>
       <c r="P8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3724288242124021</v>
+        <v>0.2685798619427099</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3724288242124021</v>
+        <v>0.2685798619427099</v>
       </c>
       <c r="S8" t="n">
         <v>0.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2214607188757509</v>
+        <v>0.4127409717056434</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2214607188757509</v>
+        <v>0.4127409717056434</v>
       </c>
       <c r="V8" t="n">
         <v>0.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2633426773920655</v>
+        <v>0.2227426626086415</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2633426773920655</v>
+        <v>0.2227426626086415</v>
       </c>
       <c r="Y8" t="n">
         <v>0.01</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3366344833932817</v>
+        <v>0.320138658989963</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3366344833932817</v>
+        <v>0.320138658989963</v>
       </c>
       <c r="AB8" t="n">
         <v>0.01</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2830952266603708</v>
+        <v>0.311302921432225</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2830952266603708</v>
+        <v>0.311302921432225</v>
       </c>
       <c r="AE8" t="n">
         <v>0.01</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2037134007271379</v>
+        <v>0.5222729220676411</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2037134007271379</v>
+        <v>0.5222729220676411</v>
       </c>
       <c r="AH8" t="n">
         <v>0.01</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2225820533372462</v>
+        <v>0.3787043067069317</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2225820533372462</v>
+        <v>0.3787043067069317</v>
       </c>
       <c r="AK8" t="n">
         <v>0.01</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.223618943579495</v>
+        <v>0.4198646185011603</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.223618943579495</v>
+        <v>0.4198646185011603</v>
       </c>
       <c r="AN8" t="n">
         <v>0.01</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2583843360096216</v>
+        <v>0.4096453559059591</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.2583843360096216</v>
+        <v>0.4096453559059591</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.01</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2761865734495222</v>
+        <v>1.363074077315801</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.2761865734495222</v>
+        <v>1.363074077315801</v>
       </c>
       <c r="AT8" t="n">
         <v>0.01</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2565519574284554</v>
+        <v>0.4425119963148609</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.2565519574284554</v>
+        <v>0.4425119963148609</v>
       </c>
       <c r="AW8" t="n">
         <v>0.01</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.2351087371632457</v>
+        <v>0.4176075371913612</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.2351087371632457</v>
+        <v>0.4176075371913612</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.01</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3047992927022278</v>
+        <v>0.4132647010451183</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.3047992927022278</v>
+        <v>0.4132647010451183</v>
       </c>
       <c r="BC8" t="n">
         <v>0.01</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.2619254058040679</v>
+        <v>0.3023054534581024</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.2619254058040679</v>
+        <v>0.3023054534581024</v>
       </c>
       <c r="BF8" t="n">
         <v>0.01</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.2489789072424173</v>
+        <v>0.314974942440167</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2489789072424173</v>
+        <v>0.314974942440167</v>
       </c>
       <c r="BI8" t="n">
         <v>0.01</v>
@@ -2033,181 +2033,181 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0488125846737239</v>
+        <v>0.1366759777069092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0488125846737239</v>
+        <v>0.1366759777069092</v>
       </c>
       <c r="D9" t="n">
         <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05003951482794946</v>
+        <v>0.4968554306030273</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05003951482794946</v>
+        <v>0.4968554306030273</v>
       </c>
       <c r="G9" t="n">
         <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2810194313153624</v>
+        <v>2.441131879293726</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2810194313153624</v>
+        <v>2.441131879293726</v>
       </c>
       <c r="J9" t="n">
         <v>0.01</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1610854897275567</v>
+        <v>2.037720913884603</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1610854897275567</v>
+        <v>2.037720913884603</v>
       </c>
       <c r="M9" t="n">
         <v>0.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0.157562535176985</v>
+        <v>2.480194331292885</v>
       </c>
       <c r="O9" t="n">
-        <v>0.157562535176985</v>
+        <v>2.480194331292885</v>
       </c>
       <c r="P9" t="n">
         <v>0.01</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3412730580568313</v>
+        <v>0.7988900703414583</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3412730580568313</v>
+        <v>0.7988900703414583</v>
       </c>
       <c r="S9" t="n">
         <v>0.01</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2076365932263434</v>
+        <v>2.404390871527597</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2076365932263434</v>
+        <v>2.404390871527597</v>
       </c>
       <c r="V9" t="n">
         <v>0.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2514892035722733</v>
+        <v>2.410303357264674</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2514892035722733</v>
+        <v>2.410303357264674</v>
       </c>
       <c r="Y9" t="n">
         <v>0.01</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3005771384201944</v>
+        <v>2.298944482538045</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3005771384201944</v>
+        <v>2.298944482538045</v>
       </c>
       <c r="AB9" t="n">
         <v>0.01</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2727513920795173</v>
+        <v>1.628996808991699</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2727513920795173</v>
+        <v>1.628996808991699</v>
       </c>
       <c r="AE9" t="n">
         <v>0.01</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.179319666698575</v>
+        <v>2.122319141330227</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.179319666698575</v>
+        <v>2.122319141330227</v>
       </c>
       <c r="AH9" t="n">
         <v>0.01</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.2196092778723687</v>
+        <v>1.735360006902588</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2196092778723687</v>
+        <v>1.735360006902588</v>
       </c>
       <c r="AK9" t="n">
         <v>0.01</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2063040877506137</v>
+        <v>2.230928982487976</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.2063040877506137</v>
+        <v>2.230928982487976</v>
       </c>
       <c r="AN9" t="n">
         <v>0.01</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.2334155552089214</v>
+        <v>1.680959710299212</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2334155552089214</v>
+        <v>1.680959710299212</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2580042435601353</v>
+        <v>4.775701738234493</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.2580042435601353</v>
+        <v>4.775701738234493</v>
       </c>
       <c r="AT9" t="n">
         <v>0.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2356738087069243</v>
+        <v>2.489236930209445</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.2356738087069243</v>
+        <v>2.489236930209445</v>
       </c>
       <c r="AW9" t="n">
         <v>0.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.213868332831189</v>
+        <v>0.7359073206018365</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.213868332831189</v>
+        <v>0.7359073206018365</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.2983747135847807</v>
+        <v>0.8532058876717928</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.2983747135847807</v>
+        <v>0.8532058876717928</v>
       </c>
       <c r="BC9" t="n">
         <v>0.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.2527417399920523</v>
+        <v>0.3080535571312066</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.2527417399920523</v>
+        <v>0.3080535571312066</v>
       </c>
       <c r="BF9" t="n">
         <v>0.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2347372314892709</v>
+        <v>0.2994563408754766</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.2347372314892709</v>
+        <v>0.2994563408754766</v>
       </c>
       <c r="BI9" t="n">
         <v>0.01</v>
@@ -2218,181 +2218,181 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04982883628166746</v>
+        <v>0.08100657463073731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04982883628166746</v>
+        <v>0.08100657463073731</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0479453919021762</v>
+        <v>0.05260529518127442</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0479453919021762</v>
+        <v>0.05260529518127442</v>
       </c>
       <c r="G10" t="n">
         <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2324883794225752</v>
+        <v>0.1396256837224886</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2324883794225752</v>
+        <v>0.1396256837224886</v>
       </c>
       <c r="J10" t="n">
         <v>0.01</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1462188521679491</v>
+        <v>0.1804508986164412</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1462188521679491</v>
+        <v>0.1804508986164412</v>
       </c>
       <c r="M10" t="n">
         <v>0.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1447351135266945</v>
+        <v>0.290793316317251</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1447351135266945</v>
+        <v>0.290793316317251</v>
       </c>
       <c r="P10" t="n">
         <v>0.01</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3126433138083666</v>
+        <v>0.3542010496519958</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3126433138083666</v>
+        <v>0.3542010496519958</v>
       </c>
       <c r="S10" t="n">
         <v>0.01</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1897681236732751</v>
+        <v>0.3110772185132316</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1897681236732751</v>
+        <v>0.3110772185132316</v>
       </c>
       <c r="V10" t="n">
         <v>0.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2126074181869626</v>
+        <v>0.7804241364698541</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2126074181869626</v>
+        <v>0.7804241364698541</v>
       </c>
       <c r="Y10" t="n">
         <v>0.01</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2776640149950981</v>
+        <v>0.415417400100032</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2776640149950981</v>
+        <v>0.415417400100032</v>
       </c>
       <c r="AB10" t="n">
         <v>0.01</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2521195360273123</v>
+        <v>0.2554884232704353</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2521195360273123</v>
+        <v>0.2554884232704353</v>
       </c>
       <c r="AE10" t="n">
         <v>0.01</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.172347279433161</v>
+        <v>0.3307470980728976</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.172347279433161</v>
+        <v>0.3307470980728976</v>
       </c>
       <c r="AH10" t="n">
         <v>0.01</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2071684232540429</v>
+        <v>0.4725134377419454</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.2071684232540429</v>
+        <v>0.4725134377419454</v>
       </c>
       <c r="AK10" t="n">
         <v>0.01</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.198547470998019</v>
+        <v>0.5435849068524748</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.198547470998019</v>
+        <v>0.5435849068524748</v>
       </c>
       <c r="AN10" t="n">
         <v>0.01</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.220667910464108</v>
+        <v>0.2878572627133144</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.220667910464108</v>
+        <v>0.2878572627133144</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.01</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.2243565365858376</v>
+        <v>0.7428839721098577</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.2243565365858376</v>
+        <v>0.7428839721098577</v>
       </c>
       <c r="AT10" t="n">
         <v>0.01</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.2284717382863164</v>
+        <v>0.4137798302589272</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.2284717382863164</v>
+        <v>0.4137798302589272</v>
       </c>
       <c r="AW10" t="n">
         <v>0.01</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.2145446559041738</v>
+        <v>0.5152013673735201</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.2145446559041738</v>
+        <v>0.5152013673735201</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.01</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.2810016184672713</v>
+        <v>0.29879935887584</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.2810016184672713</v>
+        <v>0.29879935887584</v>
       </c>
       <c r="BC10" t="n">
         <v>0.01</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.2371941284649074</v>
+        <v>0.3087908364806208</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.2371941284649074</v>
+        <v>0.3087908364806208</v>
       </c>
       <c r="BF10" t="n">
         <v>0.01</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.2126012794859707</v>
+        <v>0.3384986305481288</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.2126012794859707</v>
+        <v>0.3384986305481288</v>
       </c>
       <c r="BI10" t="n">
         <v>0.01</v>
@@ -2403,181 +2403,181 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04588924734911416</v>
+        <v>0.4248283004760742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04588924734911416</v>
+        <v>0.4248283004760742</v>
       </c>
       <c r="D11" t="n">
         <v>0.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04692922414949862</v>
+        <v>0.02420573711395264</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04692922414949862</v>
+        <v>0.02420573711395264</v>
       </c>
       <c r="G11" t="n">
         <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2314123923517764</v>
+        <v>2.812039169548974</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2314123923517764</v>
+        <v>2.812039169548974</v>
       </c>
       <c r="J11" t="n">
         <v>0.01</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1708251308253966</v>
+        <v>3.533441129148357</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1708251308253966</v>
+        <v>3.533441129148357</v>
       </c>
       <c r="M11" t="n">
         <v>0.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1311899391259067</v>
+        <v>4.869820776555032</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1311899391259067</v>
+        <v>4.869820776555032</v>
       </c>
       <c r="P11" t="n">
         <v>0.01</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2954400381818414</v>
+        <v>1.79089136617663</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2954400381818414</v>
+        <v>1.79089136617663</v>
       </c>
       <c r="S11" t="n">
         <v>0.01</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1912001938745379</v>
+        <v>2.498565072062409</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1912001938745379</v>
+        <v>2.498565072062409</v>
       </c>
       <c r="V11" t="n">
         <v>0.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2046135112643242</v>
+        <v>3.527100257961407</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2046135112643242</v>
+        <v>3.527100257961407</v>
       </c>
       <c r="Y11" t="n">
         <v>0.01</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2930162642337382</v>
+        <v>2.498980506380612</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2930162642337382</v>
+        <v>2.498980506380612</v>
       </c>
       <c r="AB11" t="n">
         <v>0.01</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2471968636661768</v>
+        <v>3.819719072580832</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2471968636661768</v>
+        <v>3.819719072580832</v>
       </c>
       <c r="AE11" t="n">
         <v>0.01</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1635245823953301</v>
+        <v>3.393142088455958</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1635245823953301</v>
+        <v>3.393142088455958</v>
       </c>
       <c r="AH11" t="n">
         <v>0.01</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1901966619864106</v>
+        <v>3.173850950892799</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1901966619864106</v>
+        <v>3.173850950892799</v>
       </c>
       <c r="AK11" t="n">
         <v>0.01</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1700015987735242</v>
+        <v>3.714200516908822</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1700015987735242</v>
+        <v>3.714200516908822</v>
       </c>
       <c r="AN11" t="n">
         <v>0.01</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2003376496769488</v>
+        <v>4.032446024883538</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.2003376496769488</v>
+        <v>4.032446024883538</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.01</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.220291754361242</v>
+        <v>7.628648066852475</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.220291754361242</v>
+        <v>7.628648066852475</v>
       </c>
       <c r="AT11" t="n">
         <v>0.01</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2174145906791091</v>
+        <v>3.545126437016297</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.2174145906791091</v>
+        <v>3.545126437016297</v>
       </c>
       <c r="AW11" t="n">
         <v>0.01</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1914329430088401</v>
+        <v>0.8231493699425482</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.1914329430088401</v>
+        <v>0.8231493699425482</v>
       </c>
       <c r="AZ11" t="n">
         <v>0.01</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.2579870909359306</v>
+        <v>1.450920723102754</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.2579870909359306</v>
+        <v>1.450920723102754</v>
       </c>
       <c r="BC11" t="n">
         <v>0.01</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2196529859211296</v>
+        <v>0.3418646206228732</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.2196529859211296</v>
+        <v>0.3418646206228732</v>
       </c>
       <c r="BF11" t="n">
         <v>0.01</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2005179010890424</v>
+        <v>0.3855069059529342</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.2005179010890424</v>
+        <v>0.3855069059529342</v>
       </c>
       <c r="BI11" t="n">
         <v>0.01</v>
@@ -2588,181 +2588,181 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04630899740732275</v>
+        <v>0.001659781753931409</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04630899740732275</v>
+        <v>0.001659781753931409</v>
       </c>
       <c r="D12" t="n">
         <v>0.01</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0465684973745374</v>
+        <v>0.04898616313934326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0465684973745374</v>
+        <v>0.04898616313934326</v>
       </c>
       <c r="G12" t="n">
         <v>0.01</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2439461927860975</v>
+        <v>0.3640524251678638</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2439461927860975</v>
+        <v>0.3640524251678638</v>
       </c>
       <c r="J12" t="n">
         <v>0.01</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1470931681152433</v>
+        <v>0.5056659218383835</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1470931681152433</v>
+        <v>0.5056659218383835</v>
       </c>
       <c r="M12" t="n">
         <v>0.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1290358391357586</v>
+        <v>1.015505996175555</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1290358391357586</v>
+        <v>1.015505996175555</v>
       </c>
       <c r="P12" t="n">
         <v>0.01</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2728751264885068</v>
+        <v>0.658852957186185</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2728751264885068</v>
+        <v>0.658852957186185</v>
       </c>
       <c r="S12" t="n">
         <v>0.01</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1781331705488265</v>
+        <v>0.2227332896684258</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1781331705488265</v>
+        <v>0.2227332896684258</v>
       </c>
       <c r="V12" t="n">
         <v>0.01</v>
       </c>
       <c r="W12" t="n">
-        <v>0.205954830320552</v>
+        <v>1.457206283429604</v>
       </c>
       <c r="X12" t="n">
-        <v>0.205954830320552</v>
+        <v>1.457206283429604</v>
       </c>
       <c r="Y12" t="n">
         <v>0.01</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.26019800696522</v>
+        <v>0.2798939281164234</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.26019800696522</v>
+        <v>0.2798939281164234</v>
       </c>
       <c r="AB12" t="n">
         <v>0.01</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2089007105864585</v>
+        <v>0.2676391245482682</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2089007105864585</v>
+        <v>0.2676391245482682</v>
       </c>
       <c r="AE12" t="n">
         <v>0.01</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1645719822589308</v>
+        <v>0.385863017813208</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.1645719822589308</v>
+        <v>0.385863017813208</v>
       </c>
       <c r="AH12" t="n">
         <v>0.01</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1854393772128969</v>
+        <v>0.5888602705349194</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.1854393772128969</v>
+        <v>0.5888602705349194</v>
       </c>
       <c r="AK12" t="n">
         <v>0.01</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1647039160691202</v>
+        <v>0.7617179744245368</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.1647039160691202</v>
+        <v>0.7617179744245368</v>
       </c>
       <c r="AN12" t="n">
         <v>0.01</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1972702405415475</v>
+        <v>0.2936344242599443</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1972702405415475</v>
+        <v>0.2936344242599443</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.01</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.1979410807788372</v>
+        <v>0.9482692159071946</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1979410807788372</v>
+        <v>0.9482692159071946</v>
       </c>
       <c r="AT12" t="n">
         <v>0.01</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.2151300870068371</v>
+        <v>0.4335757266706969</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.2151300870068371</v>
+        <v>0.4335757266706969</v>
       </c>
       <c r="AW12" t="n">
         <v>0.01</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1770608016848564</v>
+        <v>0.6447864294464307</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1770608016848564</v>
+        <v>0.6447864294464307</v>
       </c>
       <c r="AZ12" t="n">
         <v>0.01</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.245133321583271</v>
+        <v>0.5689147016724383</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.245133321583271</v>
+        <v>0.5689147016724383</v>
       </c>
       <c r="BC12" t="n">
         <v>0.01</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.2103609955497086</v>
+        <v>0.461522309948341</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.2103609955497086</v>
+        <v>0.461522309948341</v>
       </c>
       <c r="BF12" t="n">
         <v>0.01</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.191329475864768</v>
+        <v>0.4791644094417279</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.191329475864768</v>
+        <v>0.4791644094417279</v>
       </c>
       <c r="BI12" t="n">
         <v>0.01</v>
@@ -2773,181 +2773,181 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04857849030318903</v>
+        <v>0.0917833137512207</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04857849030318903</v>
+        <v>0.0917833137512207</v>
       </c>
       <c r="D13" t="n">
         <v>0.01</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04666651550738607</v>
+        <v>0.03719254016876221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04666651550738607</v>
+        <v>0.03719254016876221</v>
       </c>
       <c r="G13" t="n">
         <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2170288735255599</v>
+        <v>4.419243822587887</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2170288735255599</v>
+        <v>4.419243822587887</v>
       </c>
       <c r="J13" t="n">
         <v>0.01</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1389484750339761</v>
+        <v>3.150752389192792</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1389484750339761</v>
+        <v>3.150752389192792</v>
       </c>
       <c r="M13" t="n">
         <v>0.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0.129974394547753</v>
+        <v>4.96669360132356</v>
       </c>
       <c r="O13" t="n">
-        <v>0.129974394547753</v>
+        <v>4.96669360132356</v>
       </c>
       <c r="P13" t="n">
         <v>0.01</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2863707925193012</v>
+        <v>2.814172453988781</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2863707925193012</v>
+        <v>2.814172453988781</v>
       </c>
       <c r="S13" t="n">
         <v>0.01</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1454487769771367</v>
+        <v>2.690051393348829</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1454487769771367</v>
+        <v>2.690051393348829</v>
       </c>
       <c r="V13" t="n">
         <v>0.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1862287904508412</v>
+        <v>5.49730997053913</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1862287904508412</v>
+        <v>5.49730997053913</v>
       </c>
       <c r="Y13" t="n">
         <v>0.01</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2463963505253196</v>
+        <v>3.248490112338027</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2463963505253196</v>
+        <v>3.248490112338027</v>
       </c>
       <c r="AB13" t="n">
         <v>0.01</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2225310262292624</v>
+        <v>3.698476349409393</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.2225310262292624</v>
+        <v>3.698476349409393</v>
       </c>
       <c r="AE13" t="n">
         <v>0.01</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1465656055882573</v>
+        <v>4.269457485191524</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1465656055882573</v>
+        <v>4.269457485191524</v>
       </c>
       <c r="AH13" t="n">
         <v>0.01</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1687434367276728</v>
+        <v>4.354818327053308</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1687434367276728</v>
+        <v>4.354818327053308</v>
       </c>
       <c r="AK13" t="n">
         <v>0.01</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1489124411717057</v>
+        <v>6.215589063204825</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1489124411717057</v>
+        <v>6.215589063204825</v>
       </c>
       <c r="AN13" t="n">
         <v>0.01</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1921194989420474</v>
+        <v>2.700778187632677</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1921194989420474</v>
+        <v>2.700778187632677</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.01</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.1981179653853178</v>
+        <v>4.286194978184194</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.1981179653853178</v>
+        <v>4.286194978184194</v>
       </c>
       <c r="AT13" t="n">
         <v>0.01</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1927800100855529</v>
+        <v>2.434625037707237</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1927800100855529</v>
+        <v>2.434625037707237</v>
       </c>
       <c r="AW13" t="n">
         <v>0.01</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1664555932208896</v>
+        <v>1.17013303456828</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1664555932208896</v>
+        <v>1.17013303456828</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.01</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.2385130777955055</v>
+        <v>1.97311819249345</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2385130777955055</v>
+        <v>1.97311819249345</v>
       </c>
       <c r="BC13" t="n">
         <v>0.01</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.1988974979892373</v>
+        <v>0.4239994353286283</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.1988974979892373</v>
+        <v>0.4239994353286283</v>
       </c>
       <c r="BF13" t="n">
         <v>0.01</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1832922115176916</v>
+        <v>0.4342825900088064</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.1832922115176916</v>
+        <v>0.4342825900088064</v>
       </c>
       <c r="BI13" t="n">
         <v>0.01</v>

--- a/log/fusion_mask_exp/fusion_mask__results.xlsx
+++ b/log/fusion_mask_exp/fusion_mask__results.xlsx
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.951152007579803</v>
+        <v>3.978182065486908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03</v>
+        <v>0.002</v>
       </c>
       <c r="D2" t="n">
-        <v>2.68059229850769</v>
+        <v>0.3507266044616699</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.001967792510986</v>
+        <v>0.5238180477917195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>0.899</v>
       </c>
       <c r="D3" t="n">
-        <v>27.32825636863708</v>
+        <v>59.72834444046021</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +486,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.057188200950623</v>
+        <v>0.2836535949632525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.694</v>
+        <v>0.927</v>
       </c>
       <c r="D4" t="n">
-        <v>52.1268208026886</v>
+        <v>120.9133920669556</v>
       </c>
     </row>
     <row r="5">
@@ -500,13 +500,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2771856538020074</v>
+        <v>0.2223801850527525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.91</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>76.70051980018616</v>
+        <v>182.4452257156372</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1732638166518882</v>
+        <v>0.1909061444830149</v>
       </c>
       <c r="C6" t="n">
         <v>0.951</v>
       </c>
       <c r="D6" t="n">
-        <v>101.2799408435822</v>
+        <v>244.1769952774048</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1527658134023659</v>
+        <v>0.1754693427123129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.951</v>
+        <v>0.955</v>
       </c>
       <c r="D7" t="n">
-        <v>125.8137309551239</v>
+        <v>305.5086863040924</v>
       </c>
     </row>
     <row r="8">
@@ -542,13 +542,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1458780088409549</v>
+        <v>0.1635935481963679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="D8" t="n">
-        <v>150.5141415596008</v>
+        <v>368.2126185894012</v>
       </c>
     </row>
     <row r="9">
@@ -556,13 +556,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1301407044196094</v>
+        <v>0.1489992190804333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.963</v>
+        <v>0.961</v>
       </c>
       <c r="D9" t="n">
-        <v>175.2499647140503</v>
+        <v>429.3246812820435</v>
       </c>
     </row>
     <row r="10">
@@ -570,13 +570,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1970259943578276</v>
+        <v>0.1431558553734794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.948</v>
+        <v>0.966</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9129881858826</v>
+        <v>490.1080613136292</v>
       </c>
     </row>
     <row r="11">
@@ -584,13 +584,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.130872815755356</v>
+        <v>0.1373877822095528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.965</v>
+        <v>0.968</v>
       </c>
       <c r="D11" t="n">
-        <v>224.4738941192627</v>
+        <v>550.7176313400269</v>
       </c>
     </row>
     <row r="12">
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1862283144854882</v>
+        <v>0.1289432278927416</v>
       </c>
       <c r="C12" t="n">
-        <v>0.953</v>
+        <v>0.971</v>
       </c>
       <c r="D12" t="n">
-        <v>249.2513072490692</v>
+        <v>613.0978894233704</v>
       </c>
     </row>
   </sheetData>
@@ -627,11 +627,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
@@ -663,20 +663,20 @@
     <col width="21" customWidth="1" min="35" max="35"/>
     <col width="21" customWidth="1" min="36" max="36"/>
     <col width="15" customWidth="1" min="37" max="37"/>
-    <col width="20" customWidth="1" min="38" max="38"/>
-    <col width="20" customWidth="1" min="39" max="39"/>
+    <col width="21" customWidth="1" min="38" max="38"/>
+    <col width="21" customWidth="1" min="39" max="39"/>
     <col width="15" customWidth="1" min="40" max="40"/>
     <col width="21" customWidth="1" min="41" max="41"/>
     <col width="21" customWidth="1" min="42" max="42"/>
     <col width="15" customWidth="1" min="43" max="43"/>
-    <col width="20" customWidth="1" min="44" max="44"/>
-    <col width="20" customWidth="1" min="45" max="45"/>
+    <col width="21" customWidth="1" min="44" max="44"/>
+    <col width="21" customWidth="1" min="45" max="45"/>
     <col width="15" customWidth="1" min="46" max="46"/>
-    <col width="20" customWidth="1" min="47" max="47"/>
-    <col width="20" customWidth="1" min="48" max="48"/>
+    <col width="21" customWidth="1" min="47" max="47"/>
+    <col width="21" customWidth="1" min="48" max="48"/>
     <col width="15" customWidth="1" min="49" max="49"/>
-    <col width="20" customWidth="1" min="50" max="50"/>
-    <col width="20" customWidth="1" min="51" max="51"/>
+    <col width="21" customWidth="1" min="50" max="50"/>
+    <col width="21" customWidth="1" min="51" max="51"/>
     <col width="15" customWidth="1" min="52" max="52"/>
     <col width="21" customWidth="1" min="53" max="53"/>
     <col width="21" customWidth="1" min="54" max="54"/>
@@ -1108,181 +1108,181 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04094501495361328</v>
+        <v>0.06014753699040739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04094501495361328</v>
+        <v>0.06014753699040739</v>
       </c>
       <c r="D4" t="n">
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04101921558380127</v>
+        <v>0.07140147807949689</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04101921558380127</v>
+        <v>0.07140147807949689</v>
       </c>
       <c r="G4" t="n">
         <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3320815518832674</v>
+        <v>0.4437631319835782</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3320815518832674</v>
+        <v>0.4437631319835782</v>
       </c>
       <c r="J4" t="n">
         <v>0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3886073410717492</v>
+        <v>0.3064300647750497</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3886073410717492</v>
+        <v>0.3064300647750497</v>
       </c>
       <c r="M4" t="n">
         <v>0.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6096208544960245</v>
+        <v>0.3955357192270458</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6096208544960245</v>
+        <v>0.3955357192270458</v>
       </c>
       <c r="P4" t="n">
         <v>0.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4386018795578275</v>
+        <v>0.6556902441382408</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4386018795578275</v>
+        <v>0.6556902441382408</v>
       </c>
       <c r="S4" t="n">
         <v>0.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.161975431358442</v>
+        <v>0.5495159959048033</v>
       </c>
       <c r="U4" t="n">
-        <v>1.161975431358442</v>
+        <v>0.5495159959048033</v>
       </c>
       <c r="V4" t="n">
         <v>0.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4733217794343363</v>
+        <v>0.5532662820070982</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4733217794343363</v>
+        <v>0.5532662820070982</v>
       </c>
       <c r="Y4" t="n">
         <v>0.01</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.070831120535731</v>
+        <v>0.7586124319583177</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.070831120535731</v>
+        <v>0.7586124319583177</v>
       </c>
       <c r="AB4" t="n">
         <v>0.01</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.413188397884369</v>
+        <v>0.7572399948537349</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.413188397884369</v>
+        <v>0.7572399948537349</v>
       </c>
       <c r="AE4" t="n">
         <v>0.01</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.187666018232703</v>
+        <v>0.8935408031940461</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.187666018232703</v>
+        <v>0.8935408031940461</v>
       </c>
       <c r="AH4" t="n">
         <v>0.01</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8958612853940576</v>
+        <v>0.8568799130059779</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8958612853940576</v>
+        <v>0.8568799130059779</v>
       </c>
       <c r="AK4" t="n">
         <v>0.01</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.067700760238804</v>
+        <v>1.092161597795784</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.067700760238804</v>
+        <v>1.092161597795784</v>
       </c>
       <c r="AN4" t="n">
         <v>0.01</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.566042263507843</v>
+        <v>1.107439040243626</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.566042263507843</v>
+        <v>1.107439040243626</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.01</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.409802305586636</v>
+        <v>1.325393327474594</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.409802305586636</v>
+        <v>1.325393327474594</v>
       </c>
       <c r="AT4" t="n">
         <v>0.01</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.535093680471182</v>
+        <v>1.35020891726017</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.535093680471182</v>
+        <v>1.35020891726017</v>
       </c>
       <c r="AW4" t="n">
         <v>0.01</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.517430973052979</v>
+        <v>1.390337603986263</v>
       </c>
       <c r="AY4" t="n">
-        <v>3.517430973052979</v>
+        <v>1.390337603986263</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.01</v>
       </c>
       <c r="BA4" t="n">
-        <v>3.534332959651947</v>
+        <v>1.393217480480671</v>
       </c>
       <c r="BB4" t="n">
-        <v>3.534332959651947</v>
+        <v>1.393217480480671</v>
       </c>
       <c r="BC4" t="n">
         <v>0.01</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.593182237148285</v>
+        <v>1.553124831020832</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.593182237148285</v>
+        <v>1.553124831020832</v>
       </c>
       <c r="BF4" t="n">
         <v>0.01</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.687488875389099</v>
+        <v>1.528127684891224</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.687488875389099</v>
+        <v>1.528127684891224</v>
       </c>
       <c r="BI4" t="n">
         <v>0.01</v>
@@ -1293,181 +1293,181 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05001582011580467</v>
+        <v>0.05104200001325807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05001582011580467</v>
+        <v>0.05104200001325807</v>
       </c>
       <c r="D5" t="n">
         <v>0.01</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04968887224793434</v>
+        <v>0.05242197968938853</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04968887224793434</v>
+        <v>0.05242197968938853</v>
       </c>
       <c r="G5" t="n">
         <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2160856688633146</v>
+        <v>0.3944967511482537</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2160856688633146</v>
+        <v>0.3944967511482537</v>
       </c>
       <c r="J5" t="n">
         <v>0.01</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3097846282528894</v>
+        <v>0.2275044413469732</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3097846282528894</v>
+        <v>0.2275044413469732</v>
       </c>
       <c r="M5" t="n">
         <v>0.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5070480051285995</v>
+        <v>0.2529045029729605</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5070480051285995</v>
+        <v>0.2529045029729605</v>
       </c>
       <c r="P5" t="n">
         <v>0.01</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3954433959639391</v>
+        <v>0.4617268603667617</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3954433959639391</v>
+        <v>0.4617268603667617</v>
       </c>
       <c r="S5" t="n">
         <v>0.01</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4186020127935626</v>
+        <v>0.3321219362411648</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4186020127935626</v>
+        <v>0.3321219362411648</v>
       </c>
       <c r="V5" t="n">
         <v>0.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4619171550212195</v>
+        <v>0.3410472977161407</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4619171550212195</v>
+        <v>0.3410472977161407</v>
       </c>
       <c r="Y5" t="n">
         <v>0.01</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6307609771378339</v>
+        <v>0.5048251240327954</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6307609771378339</v>
+        <v>0.5048251240327954</v>
       </c>
       <c r="AB5" t="n">
         <v>0.01</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5734462848116527</v>
+        <v>0.4885398593172431</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5734462848116527</v>
+        <v>0.4885398593172431</v>
       </c>
       <c r="AE5" t="n">
         <v>0.01</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7481901234854013</v>
+        <v>0.3205362439155579</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7481901234854013</v>
+        <v>0.3205362439155579</v>
       </c>
       <c r="AH5" t="n">
         <v>0.01</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.989125506952405</v>
+        <v>0.3768088863417506</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.989125506952405</v>
+        <v>0.3768088863417506</v>
       </c>
       <c r="AK5" t="n">
         <v>0.01</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7692947506415657</v>
+        <v>0.4207298278063536</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.7692947506415657</v>
+        <v>0.4207298278063536</v>
       </c>
       <c r="AN5" t="n">
         <v>0.01</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.7831778538972139</v>
+        <v>0.4610000075772405</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.7831778538972139</v>
+        <v>0.4610000075772405</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.01</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.7675208350378671</v>
+        <v>0.5400493951141834</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.7675208350378671</v>
+        <v>0.5400493951141834</v>
       </c>
       <c r="AT5" t="n">
         <v>0.01</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.8141358008747921</v>
+        <v>0.526900806427002</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.8141358008747921</v>
+        <v>0.526900806427002</v>
       </c>
       <c r="AW5" t="n">
         <v>0.01</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.19772295832634</v>
+        <v>0.4995433424785733</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.19772295832634</v>
+        <v>0.4995433424785733</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.01</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.8591516759805381</v>
+        <v>0.561392847597599</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.8591516759805381</v>
+        <v>0.561392847597599</v>
       </c>
       <c r="BC5" t="n">
         <v>0.01</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.828796184062958</v>
+        <v>0.522808076813817</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.828796184062958</v>
+        <v>0.522808076813817</v>
       </c>
       <c r="BF5" t="n">
         <v>0.01</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.778356137275696</v>
+        <v>0.5205654244869947</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.778356137275696</v>
+        <v>0.5205654244869947</v>
       </c>
       <c r="BI5" t="n">
         <v>0.01</v>
@@ -1478,181 +1478,181 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01499544858932495</v>
+        <v>0.04792979831574485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01499544858932495</v>
+        <v>0.04792979831574485</v>
       </c>
       <c r="D6" t="n">
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02196048736572266</v>
+        <v>0.05194483906205278</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02196048736572266</v>
+        <v>0.05194483906205278</v>
       </c>
       <c r="G6" t="n">
         <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4582472468632613</v>
+        <v>0.325058541726321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4582472468632613</v>
+        <v>0.325058541726321</v>
       </c>
       <c r="J6" t="n">
         <v>0.01</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3806029230715147</v>
+        <v>0.2104971360508353</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3806029230715147</v>
+        <v>0.2104971360508353</v>
       </c>
       <c r="M6" t="n">
         <v>0.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7687767369917128</v>
+        <v>0.2068868623906747</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7687767369917128</v>
+        <v>0.2068868623906747</v>
       </c>
       <c r="P6" t="n">
         <v>0.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5358044436547061</v>
+        <v>0.4080871859937906</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5358044436547061</v>
+        <v>0.4080871859937906</v>
       </c>
       <c r="S6" t="n">
         <v>0.01</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9365419563581235</v>
+        <v>0.2868231230042875</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9365419563581235</v>
+        <v>0.2868231230042875</v>
       </c>
       <c r="V6" t="n">
         <v>0.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6047836552666559</v>
+        <v>0.3153147042170167</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6047836552666559</v>
+        <v>0.3153147042170167</v>
       </c>
       <c r="Y6" t="n">
         <v>0.01</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.042655838997161</v>
+        <v>0.4176945437584073</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.042655838997161</v>
+        <v>0.4176945437584073</v>
       </c>
       <c r="AB6" t="n">
         <v>0.01</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8618744038315117</v>
+        <v>0.3707103029638529</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8618744038315117</v>
+        <v>0.3707103029638529</v>
       </c>
       <c r="AE6" t="n">
         <v>0.01</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.217849266994744</v>
+        <v>0.257805112618953</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.217849266994744</v>
+        <v>0.257805112618953</v>
       </c>
       <c r="AH6" t="n">
         <v>0.01</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.189403832023963</v>
+        <v>0.3072873696871102</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.189403832023963</v>
+        <v>0.3072873696871102</v>
       </c>
       <c r="AK6" t="n">
         <v>0.01</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.002428621948347</v>
+        <v>0.3000191191770136</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.002428621948347</v>
+        <v>0.3000191191770136</v>
       </c>
       <c r="AN6" t="n">
         <v>0.01</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.171093578599393</v>
+        <v>0.3419897490367294</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.171093578599393</v>
+        <v>0.3419897490367294</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.139872516840697</v>
+        <v>0.396935632713139</v>
       </c>
       <c r="AS6" t="n">
-        <v>8.139872516840697</v>
+        <v>0.396935632713139</v>
       </c>
       <c r="AT6" t="n">
         <v>0.01</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.214274064600468</v>
+        <v>0.365496244058013</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.214274064600468</v>
+        <v>0.365496244058013</v>
       </c>
       <c r="AW6" t="n">
         <v>0.01</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.8790402030572295</v>
+        <v>0.3516352274268866</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.8790402030572295</v>
+        <v>0.3516352274268866</v>
       </c>
       <c r="AZ6" t="n">
         <v>0.01</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.335565530359745</v>
+        <v>0.4220027647912502</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.335565530359745</v>
+        <v>0.4220027647912502</v>
       </c>
       <c r="BC6" t="n">
         <v>0.01</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.689657233725302</v>
+        <v>0.373892757743597</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.689657233725302</v>
+        <v>0.373892757743597</v>
       </c>
       <c r="BF6" t="n">
         <v>0.01</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.7503151361260098</v>
+        <v>0.364715605378151</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.7503151361260098</v>
+        <v>0.364715605378151</v>
       </c>
       <c r="BI6" t="n">
         <v>0.01</v>
@@ -1663,181 +1663,181 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5.883988924324512e-05</v>
+        <v>0.04828442298923619</v>
       </c>
       <c r="C7" t="n">
-        <v>5.883988924324512e-05</v>
+        <v>0.04828442298923619</v>
       </c>
       <c r="D7" t="n">
         <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003527632355690002</v>
+        <v>0.04991326122602913</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003527632355690002</v>
+        <v>0.04991326122602913</v>
       </c>
       <c r="G7" t="n">
         <v>0.01</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6352374259825507</v>
+        <v>0.3253877873159945</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6352374259825507</v>
+        <v>0.3253877873159945</v>
       </c>
       <c r="J7" t="n">
         <v>0.01</v>
       </c>
       <c r="K7" t="n">
-        <v>1.620887469459535</v>
+        <v>0.1955376554094255</v>
       </c>
       <c r="L7" t="n">
-        <v>1.620887469459535</v>
+        <v>0.1955376554094255</v>
       </c>
       <c r="M7" t="n">
         <v>0.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.658888188369151</v>
+        <v>0.1755081106582657</v>
       </c>
       <c r="O7" t="n">
-        <v>1.658888188369151</v>
+        <v>0.1755081106582657</v>
       </c>
       <c r="P7" t="n">
         <v>0.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5506597065286523</v>
+        <v>0.3896353888139129</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5506597065286523</v>
+        <v>0.3896353888139129</v>
       </c>
       <c r="S7" t="n">
         <v>0.01</v>
       </c>
       <c r="T7" t="n">
-        <v>1.127737367372756</v>
+        <v>0.2446833074465394</v>
       </c>
       <c r="U7" t="n">
-        <v>1.127737367372756</v>
+        <v>0.2446833074465394</v>
       </c>
       <c r="V7" t="n">
         <v>0.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.523532454802929</v>
+        <v>0.272764929421246</v>
       </c>
       <c r="X7" t="n">
-        <v>1.523532454802929</v>
+        <v>0.272764929421246</v>
       </c>
       <c r="Y7" t="n">
         <v>0.01</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.315650480638724</v>
+        <v>0.3703440760448575</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.315650480638724</v>
+        <v>0.3703440760448575</v>
       </c>
       <c r="AB7" t="n">
         <v>0.01</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.118238805409425</v>
+        <v>0.3194160296116024</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.118238805409425</v>
+        <v>0.3194160296116024</v>
       </c>
       <c r="AE7" t="n">
         <v>0.01</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.145676190722734</v>
+        <v>0.2061908257100731</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.145676190722734</v>
+        <v>0.2061908257100731</v>
       </c>
       <c r="AH7" t="n">
         <v>0.01</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.9679159653699025</v>
+        <v>0.2569249112904072</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9679159653699025</v>
+        <v>0.2569249112904072</v>
       </c>
       <c r="AK7" t="n">
         <v>0.01</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.146335112389952</v>
+        <v>0.2382160053215921</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.146335112389952</v>
+        <v>0.2382160053215921</v>
       </c>
       <c r="AN7" t="n">
         <v>0.01</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.920092337153328</v>
+        <v>0.2971300339885056</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.920092337153328</v>
+        <v>0.2971300339885056</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.01</v>
       </c>
       <c r="AR7" t="n">
-        <v>9.731714835867024</v>
+        <v>0.3288255263864994</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.731714835867024</v>
+        <v>0.3288255263864994</v>
       </c>
       <c r="AT7" t="n">
         <v>0.01</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.710604052995332</v>
+        <v>0.3121898581832647</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.710604052995332</v>
+        <v>0.3121898581832647</v>
       </c>
       <c r="AW7" t="n">
         <v>0.01</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.808249510750175</v>
+        <v>0.2797871082276106</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.808249510750175</v>
+        <v>0.2797871082276106</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.671988178878091</v>
+        <v>0.3463143357634544</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.671988178878091</v>
+        <v>0.3463143357634544</v>
       </c>
       <c r="BC7" t="n">
         <v>0.01</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.4507940939813853</v>
+        <v>0.3009979116171598</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.4507940939813853</v>
+        <v>0.3009979116171598</v>
       </c>
       <c r="BF7" t="n">
         <v>0.01</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.4515773499011994</v>
+        <v>0.2836982613243162</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.4515773499011994</v>
+        <v>0.2836982613243162</v>
       </c>
       <c r="BI7" t="n">
         <v>0.01</v>
@@ -1848,181 +1848,181 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.613028564453125</v>
+        <v>0.04807762281736359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.613028564453125</v>
+        <v>0.04807762281736359</v>
       </c>
       <c r="D8" t="n">
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08021697044372558</v>
+        <v>0.05024443919362966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08021697044372558</v>
+        <v>0.05024443919362966</v>
       </c>
       <c r="G8" t="n">
         <v>0.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3127728853283693</v>
+        <v>0.2783882156014442</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3127728853283693</v>
+        <v>0.2783882156014442</v>
       </c>
       <c r="J8" t="n">
         <v>0.01</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4567973504452414</v>
+        <v>0.1741900969296694</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4567973504452414</v>
+        <v>0.1741900969296694</v>
       </c>
       <c r="M8" t="n">
         <v>0.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5113760300668492</v>
+        <v>0.1680941513041034</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5113760300668492</v>
+        <v>0.1680941513041034</v>
       </c>
       <c r="P8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2685798619427099</v>
+        <v>0.3724288242124021</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2685798619427099</v>
+        <v>0.3724288242124021</v>
       </c>
       <c r="S8" t="n">
         <v>0.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4127409717056434</v>
+        <v>0.2214607188757509</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4127409717056434</v>
+        <v>0.2214607188757509</v>
       </c>
       <c r="V8" t="n">
         <v>0.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2227426626086415</v>
+        <v>0.2633426773920655</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2227426626086415</v>
+        <v>0.2633426773920655</v>
       </c>
       <c r="Y8" t="n">
         <v>0.01</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.320138658989963</v>
+        <v>0.3366344833932817</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.320138658989963</v>
+        <v>0.3366344833932817</v>
       </c>
       <c r="AB8" t="n">
         <v>0.01</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.311302921432225</v>
+        <v>0.2830952266603708</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.311302921432225</v>
+        <v>0.2830952266603708</v>
       </c>
       <c r="AE8" t="n">
         <v>0.01</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5222729220676411</v>
+        <v>0.2037134007271379</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5222729220676411</v>
+        <v>0.2037134007271379</v>
       </c>
       <c r="AH8" t="n">
         <v>0.01</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.3787043067069317</v>
+        <v>0.2225820533372462</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.3787043067069317</v>
+        <v>0.2225820533372462</v>
       </c>
       <c r="AK8" t="n">
         <v>0.01</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4198646185011603</v>
+        <v>0.223618943579495</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.4198646185011603</v>
+        <v>0.223618943579495</v>
       </c>
       <c r="AN8" t="n">
         <v>0.01</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.4096453559059591</v>
+        <v>0.2583843360096216</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.4096453559059591</v>
+        <v>0.2583843360096216</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.01</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.363074077315801</v>
+        <v>0.2761865734495222</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.363074077315801</v>
+        <v>0.2761865734495222</v>
       </c>
       <c r="AT8" t="n">
         <v>0.01</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.4425119963148609</v>
+        <v>0.2565519574284554</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.4425119963148609</v>
+        <v>0.2565519574284554</v>
       </c>
       <c r="AW8" t="n">
         <v>0.01</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.4176075371913612</v>
+        <v>0.2351087371632457</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.4176075371913612</v>
+        <v>0.2351087371632457</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.01</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.4132647010451183</v>
+        <v>0.3047992927022278</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.4132647010451183</v>
+        <v>0.3047992927022278</v>
       </c>
       <c r="BC8" t="n">
         <v>0.01</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.3023054534581024</v>
+        <v>0.2619254058040679</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.3023054534581024</v>
+        <v>0.2619254058040679</v>
       </c>
       <c r="BF8" t="n">
         <v>0.01</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.314974942440167</v>
+        <v>0.2489789072424173</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.314974942440167</v>
+        <v>0.2489789072424173</v>
       </c>
       <c r="BI8" t="n">
         <v>0.01</v>
@@ -2033,181 +2033,181 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1366759777069092</v>
+        <v>0.0488125846737239</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1366759777069092</v>
+        <v>0.0488125846737239</v>
       </c>
       <c r="D9" t="n">
         <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4968554306030273</v>
+        <v>0.05003951482794946</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4968554306030273</v>
+        <v>0.05003951482794946</v>
       </c>
       <c r="G9" t="n">
         <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>2.441131879293726</v>
+        <v>0.2810194313153624</v>
       </c>
       <c r="I9" t="n">
-        <v>2.441131879293726</v>
+        <v>0.2810194313153624</v>
       </c>
       <c r="J9" t="n">
         <v>0.01</v>
       </c>
       <c r="K9" t="n">
-        <v>2.037720913884603</v>
+        <v>0.1610854897275567</v>
       </c>
       <c r="L9" t="n">
-        <v>2.037720913884603</v>
+        <v>0.1610854897275567</v>
       </c>
       <c r="M9" t="n">
         <v>0.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.480194331292885</v>
+        <v>0.157562535176985</v>
       </c>
       <c r="O9" t="n">
-        <v>2.480194331292885</v>
+        <v>0.157562535176985</v>
       </c>
       <c r="P9" t="n">
         <v>0.01</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7988900703414583</v>
+        <v>0.3412730580568313</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7988900703414583</v>
+        <v>0.3412730580568313</v>
       </c>
       <c r="S9" t="n">
         <v>0.01</v>
       </c>
       <c r="T9" t="n">
-        <v>2.404390871527597</v>
+        <v>0.2076365932263434</v>
       </c>
       <c r="U9" t="n">
-        <v>2.404390871527597</v>
+        <v>0.2076365932263434</v>
       </c>
       <c r="V9" t="n">
         <v>0.01</v>
       </c>
       <c r="W9" t="n">
-        <v>2.410303357264674</v>
+        <v>0.2514892035722733</v>
       </c>
       <c r="X9" t="n">
-        <v>2.410303357264674</v>
+        <v>0.2514892035722733</v>
       </c>
       <c r="Y9" t="n">
         <v>0.01</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.298944482538045</v>
+        <v>0.3005771384201944</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.298944482538045</v>
+        <v>0.3005771384201944</v>
       </c>
       <c r="AB9" t="n">
         <v>0.01</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.628996808991699</v>
+        <v>0.2727513920795173</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.628996808991699</v>
+        <v>0.2727513920795173</v>
       </c>
       <c r="AE9" t="n">
         <v>0.01</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.122319141330227</v>
+        <v>0.179319666698575</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.122319141330227</v>
+        <v>0.179319666698575</v>
       </c>
       <c r="AH9" t="n">
         <v>0.01</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.735360006902588</v>
+        <v>0.2196092778723687</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.735360006902588</v>
+        <v>0.2196092778723687</v>
       </c>
       <c r="AK9" t="n">
         <v>0.01</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.230928982487976</v>
+        <v>0.2063040877506137</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.230928982487976</v>
+        <v>0.2063040877506137</v>
       </c>
       <c r="AN9" t="n">
         <v>0.01</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.680959710299212</v>
+        <v>0.2334155552089214</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.680959710299212</v>
+        <v>0.2334155552089214</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.775701738234493</v>
+        <v>0.2580042435601353</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.775701738234493</v>
+        <v>0.2580042435601353</v>
       </c>
       <c r="AT9" t="n">
         <v>0.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.489236930209445</v>
+        <v>0.2356738087069243</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.489236930209445</v>
+        <v>0.2356738087069243</v>
       </c>
       <c r="AW9" t="n">
         <v>0.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.7359073206018365</v>
+        <v>0.213868332831189</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.7359073206018365</v>
+        <v>0.213868332831189</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.8532058876717928</v>
+        <v>0.2983747135847807</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.8532058876717928</v>
+        <v>0.2983747135847807</v>
       </c>
       <c r="BC9" t="n">
         <v>0.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.3080535571312066</v>
+        <v>0.2527417399920523</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.3080535571312066</v>
+        <v>0.2527417399920523</v>
       </c>
       <c r="BF9" t="n">
         <v>0.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2994563408754766</v>
+        <v>0.2347372314892709</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.2994563408754766</v>
+        <v>0.2347372314892709</v>
       </c>
       <c r="BI9" t="n">
         <v>0.01</v>
@@ -2218,181 +2218,181 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08100657463073731</v>
+        <v>0.04982883628166746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08100657463073731</v>
+        <v>0.04982883628166746</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05260529518127442</v>
+        <v>0.0479453919021762</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05260529518127442</v>
+        <v>0.0479453919021762</v>
       </c>
       <c r="G10" t="n">
         <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1396256837224886</v>
+        <v>0.2324883794225752</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1396256837224886</v>
+        <v>0.2324883794225752</v>
       </c>
       <c r="J10" t="n">
         <v>0.01</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1804508986164412</v>
+        <v>0.1462188521679491</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1804508986164412</v>
+        <v>0.1462188521679491</v>
       </c>
       <c r="M10" t="n">
         <v>0.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0.290793316317251</v>
+        <v>0.1447351135266945</v>
       </c>
       <c r="O10" t="n">
-        <v>0.290793316317251</v>
+        <v>0.1447351135266945</v>
       </c>
       <c r="P10" t="n">
         <v>0.01</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3542010496519958</v>
+        <v>0.3126433138083666</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3542010496519958</v>
+        <v>0.3126433138083666</v>
       </c>
       <c r="S10" t="n">
         <v>0.01</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3110772185132316</v>
+        <v>0.1897681236732751</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3110772185132316</v>
+        <v>0.1897681236732751</v>
       </c>
       <c r="V10" t="n">
         <v>0.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7804241364698541</v>
+        <v>0.2126074181869626</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7804241364698541</v>
+        <v>0.2126074181869626</v>
       </c>
       <c r="Y10" t="n">
         <v>0.01</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.415417400100032</v>
+        <v>0.2776640149950981</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.415417400100032</v>
+        <v>0.2776640149950981</v>
       </c>
       <c r="AB10" t="n">
         <v>0.01</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2554884232704353</v>
+        <v>0.2521195360273123</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2554884232704353</v>
+        <v>0.2521195360273123</v>
       </c>
       <c r="AE10" t="n">
         <v>0.01</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3307470980728976</v>
+        <v>0.172347279433161</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3307470980728976</v>
+        <v>0.172347279433161</v>
       </c>
       <c r="AH10" t="n">
         <v>0.01</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.4725134377419454</v>
+        <v>0.2071684232540429</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.4725134377419454</v>
+        <v>0.2071684232540429</v>
       </c>
       <c r="AK10" t="n">
         <v>0.01</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.5435849068524748</v>
+        <v>0.198547470998019</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5435849068524748</v>
+        <v>0.198547470998019</v>
       </c>
       <c r="AN10" t="n">
         <v>0.01</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.2878572627133144</v>
+        <v>0.220667910464108</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.2878572627133144</v>
+        <v>0.220667910464108</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.01</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.7428839721098577</v>
+        <v>0.2243565365858376</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.7428839721098577</v>
+        <v>0.2243565365858376</v>
       </c>
       <c r="AT10" t="n">
         <v>0.01</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.4137798302589272</v>
+        <v>0.2284717382863164</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.4137798302589272</v>
+        <v>0.2284717382863164</v>
       </c>
       <c r="AW10" t="n">
         <v>0.01</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.5152013673735201</v>
+        <v>0.2145446559041738</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.5152013673735201</v>
+        <v>0.2145446559041738</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.01</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.29879935887584</v>
+        <v>0.2810016184672713</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.29879935887584</v>
+        <v>0.2810016184672713</v>
       </c>
       <c r="BC10" t="n">
         <v>0.01</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.3087908364806208</v>
+        <v>0.2371941284649074</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.3087908364806208</v>
+        <v>0.2371941284649074</v>
       </c>
       <c r="BF10" t="n">
         <v>0.01</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.3384986305481288</v>
+        <v>0.2126012794859707</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.3384986305481288</v>
+        <v>0.2126012794859707</v>
       </c>
       <c r="BI10" t="n">
         <v>0.01</v>
@@ -2403,181 +2403,181 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4248283004760742</v>
+        <v>0.04588924734911416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4248283004760742</v>
+        <v>0.04588924734911416</v>
       </c>
       <c r="D11" t="n">
         <v>0.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02420573711395264</v>
+        <v>0.04692922414949862</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02420573711395264</v>
+        <v>0.04692922414949862</v>
       </c>
       <c r="G11" t="n">
         <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>2.812039169548974</v>
+        <v>0.2314123923517764</v>
       </c>
       <c r="I11" t="n">
-        <v>2.812039169548974</v>
+        <v>0.2314123923517764</v>
       </c>
       <c r="J11" t="n">
         <v>0.01</v>
       </c>
       <c r="K11" t="n">
-        <v>3.533441129148357</v>
+        <v>0.1708251308253966</v>
       </c>
       <c r="L11" t="n">
-        <v>3.533441129148357</v>
+        <v>0.1708251308253966</v>
       </c>
       <c r="M11" t="n">
         <v>0.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.869820776555032</v>
+        <v>0.1311899391259067</v>
       </c>
       <c r="O11" t="n">
-        <v>4.869820776555032</v>
+        <v>0.1311899391259067</v>
       </c>
       <c r="P11" t="n">
         <v>0.01</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79089136617663</v>
+        <v>0.2954400381818414</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79089136617663</v>
+        <v>0.2954400381818414</v>
       </c>
       <c r="S11" t="n">
         <v>0.01</v>
       </c>
       <c r="T11" t="n">
-        <v>2.498565072062409</v>
+        <v>0.1912001938745379</v>
       </c>
       <c r="U11" t="n">
-        <v>2.498565072062409</v>
+        <v>0.1912001938745379</v>
       </c>
       <c r="V11" t="n">
         <v>0.01</v>
       </c>
       <c r="W11" t="n">
-        <v>3.527100257961407</v>
+        <v>0.2046135112643242</v>
       </c>
       <c r="X11" t="n">
-        <v>3.527100257961407</v>
+        <v>0.2046135112643242</v>
       </c>
       <c r="Y11" t="n">
         <v>0.01</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.498980506380612</v>
+        <v>0.2930162642337382</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.498980506380612</v>
+        <v>0.2930162642337382</v>
       </c>
       <c r="AB11" t="n">
         <v>0.01</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.819719072580832</v>
+        <v>0.2471968636661768</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.819719072580832</v>
+        <v>0.2471968636661768</v>
       </c>
       <c r="AE11" t="n">
         <v>0.01</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.393142088455958</v>
+        <v>0.1635245823953301</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.393142088455958</v>
+        <v>0.1635245823953301</v>
       </c>
       <c r="AH11" t="n">
         <v>0.01</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.173850950892799</v>
+        <v>0.1901966619864106</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.173850950892799</v>
+        <v>0.1901966619864106</v>
       </c>
       <c r="AK11" t="n">
         <v>0.01</v>
       </c>
       <c r="AL11" t="n">
-        <v>3.714200516908822</v>
+        <v>0.1700015987735242</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.714200516908822</v>
+        <v>0.1700015987735242</v>
       </c>
       <c r="AN11" t="n">
         <v>0.01</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.032446024883538</v>
+        <v>0.2003376496769488</v>
       </c>
       <c r="AP11" t="n">
-        <v>4.032446024883538</v>
+        <v>0.2003376496769488</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.01</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.628648066852475</v>
+        <v>0.220291754361242</v>
       </c>
       <c r="AS11" t="n">
-        <v>7.628648066852475</v>
+        <v>0.220291754361242</v>
       </c>
       <c r="AT11" t="n">
         <v>0.01</v>
       </c>
       <c r="AU11" t="n">
-        <v>3.545126437016297</v>
+        <v>0.2174145906791091</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.545126437016297</v>
+        <v>0.2174145906791091</v>
       </c>
       <c r="AW11" t="n">
         <v>0.01</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8231493699425482</v>
+        <v>0.1914329430088401</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.8231493699425482</v>
+        <v>0.1914329430088401</v>
       </c>
       <c r="AZ11" t="n">
         <v>0.01</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.450920723102754</v>
+        <v>0.2579870909359306</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.450920723102754</v>
+        <v>0.2579870909359306</v>
       </c>
       <c r="BC11" t="n">
         <v>0.01</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.3418646206228732</v>
+        <v>0.2196529859211296</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.3418646206228732</v>
+        <v>0.2196529859211296</v>
       </c>
       <c r="BF11" t="n">
         <v>0.01</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.3855069059529342</v>
+        <v>0.2005179010890424</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.3855069059529342</v>
+        <v>0.2005179010890424</v>
       </c>
       <c r="BI11" t="n">
         <v>0.01</v>
@@ -2588,181 +2588,181 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001659781753931409</v>
+        <v>0.04630899740732275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001659781753931409</v>
+        <v>0.04630899740732275</v>
       </c>
       <c r="D12" t="n">
         <v>0.01</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04898616313934326</v>
+        <v>0.0465684973745374</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04898616313934326</v>
+        <v>0.0465684973745374</v>
       </c>
       <c r="G12" t="n">
         <v>0.01</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3640524251678638</v>
+        <v>0.2439461927860975</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3640524251678638</v>
+        <v>0.2439461927860975</v>
       </c>
       <c r="J12" t="n">
         <v>0.01</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5056659218383835</v>
+        <v>0.1470931681152433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5056659218383835</v>
+        <v>0.1470931681152433</v>
       </c>
       <c r="M12" t="n">
         <v>0.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.015505996175555</v>
+        <v>0.1290358391357586</v>
       </c>
       <c r="O12" t="n">
-        <v>1.015505996175555</v>
+        <v>0.1290358391357586</v>
       </c>
       <c r="P12" t="n">
         <v>0.01</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.658852957186185</v>
+        <v>0.2728751264885068</v>
       </c>
       <c r="R12" t="n">
-        <v>0.658852957186185</v>
+        <v>0.2728751264885068</v>
       </c>
       <c r="S12" t="n">
         <v>0.01</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2227332896684258</v>
+        <v>0.1781331705488265</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2227332896684258</v>
+        <v>0.1781331705488265</v>
       </c>
       <c r="V12" t="n">
         <v>0.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.457206283429604</v>
+        <v>0.205954830320552</v>
       </c>
       <c r="X12" t="n">
-        <v>1.457206283429604</v>
+        <v>0.205954830320552</v>
       </c>
       <c r="Y12" t="n">
         <v>0.01</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.2798939281164234</v>
+        <v>0.26019800696522</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2798939281164234</v>
+        <v>0.26019800696522</v>
       </c>
       <c r="AB12" t="n">
         <v>0.01</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2676391245482682</v>
+        <v>0.2089007105864585</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2676391245482682</v>
+        <v>0.2089007105864585</v>
       </c>
       <c r="AE12" t="n">
         <v>0.01</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.385863017813208</v>
+        <v>0.1645719822589308</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.385863017813208</v>
+        <v>0.1645719822589308</v>
       </c>
       <c r="AH12" t="n">
         <v>0.01</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.5888602705349194</v>
+        <v>0.1854393772128969</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.5888602705349194</v>
+        <v>0.1854393772128969</v>
       </c>
       <c r="AK12" t="n">
         <v>0.01</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.7617179744245368</v>
+        <v>0.1647039160691202</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.7617179744245368</v>
+        <v>0.1647039160691202</v>
       </c>
       <c r="AN12" t="n">
         <v>0.01</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.2936344242599443</v>
+        <v>0.1972702405415475</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.2936344242599443</v>
+        <v>0.1972702405415475</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.01</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.9482692159071946</v>
+        <v>0.1979410807788372</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.9482692159071946</v>
+        <v>0.1979410807788372</v>
       </c>
       <c r="AT12" t="n">
         <v>0.01</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.4335757266706969</v>
+        <v>0.2151300870068371</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.4335757266706969</v>
+        <v>0.2151300870068371</v>
       </c>
       <c r="AW12" t="n">
         <v>0.01</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.6447864294464307</v>
+        <v>0.1770608016848564</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.6447864294464307</v>
+        <v>0.1770608016848564</v>
       </c>
       <c r="AZ12" t="n">
         <v>0.01</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.5689147016724383</v>
+        <v>0.245133321583271</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.5689147016724383</v>
+        <v>0.245133321583271</v>
       </c>
       <c r="BC12" t="n">
         <v>0.01</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.461522309948341</v>
+        <v>0.2103609955497086</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.461522309948341</v>
+        <v>0.2103609955497086</v>
       </c>
       <c r="BF12" t="n">
         <v>0.01</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.4791644094417279</v>
+        <v>0.191329475864768</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.4791644094417279</v>
+        <v>0.191329475864768</v>
       </c>
       <c r="BI12" t="n">
         <v>0.01</v>
@@ -2773,181 +2773,181 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0917833137512207</v>
+        <v>0.04857849030318903</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0917833137512207</v>
+        <v>0.04857849030318903</v>
       </c>
       <c r="D13" t="n">
         <v>0.01</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03719254016876221</v>
+        <v>0.04666651550738607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03719254016876221</v>
+        <v>0.04666651550738607</v>
       </c>
       <c r="G13" t="n">
         <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>4.419243822587887</v>
+        <v>0.2170288735255599</v>
       </c>
       <c r="I13" t="n">
-        <v>4.419243822587887</v>
+        <v>0.2170288735255599</v>
       </c>
       <c r="J13" t="n">
         <v>0.01</v>
       </c>
       <c r="K13" t="n">
-        <v>3.150752389192792</v>
+        <v>0.1389484750339761</v>
       </c>
       <c r="L13" t="n">
-        <v>3.150752389192792</v>
+        <v>0.1389484750339761</v>
       </c>
       <c r="M13" t="n">
         <v>0.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.96669360132356</v>
+        <v>0.129974394547753</v>
       </c>
       <c r="O13" t="n">
-        <v>4.96669360132356</v>
+        <v>0.129974394547753</v>
       </c>
       <c r="P13" t="n">
         <v>0.01</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.814172453988781</v>
+        <v>0.2863707925193012</v>
       </c>
       <c r="R13" t="n">
-        <v>2.814172453988781</v>
+        <v>0.2863707925193012</v>
       </c>
       <c r="S13" t="n">
         <v>0.01</v>
       </c>
       <c r="T13" t="n">
-        <v>2.690051393348829</v>
+        <v>0.1454487769771367</v>
       </c>
       <c r="U13" t="n">
-        <v>2.690051393348829</v>
+        <v>0.1454487769771367</v>
       </c>
       <c r="V13" t="n">
         <v>0.01</v>
       </c>
       <c r="W13" t="n">
-        <v>5.49730997053913</v>
+        <v>0.1862287904508412</v>
       </c>
       <c r="X13" t="n">
-        <v>5.49730997053913</v>
+        <v>0.1862287904508412</v>
       </c>
       <c r="Y13" t="n">
         <v>0.01</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.248490112338027</v>
+        <v>0.2463963505253196</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.248490112338027</v>
+        <v>0.2463963505253196</v>
       </c>
       <c r="AB13" t="n">
         <v>0.01</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.698476349409393</v>
+        <v>0.2225310262292624</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.698476349409393</v>
+        <v>0.2225310262292624</v>
       </c>
       <c r="AE13" t="n">
         <v>0.01</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.269457485191524</v>
+        <v>0.1465656055882573</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.269457485191524</v>
+        <v>0.1465656055882573</v>
       </c>
       <c r="AH13" t="n">
         <v>0.01</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.354818327053308</v>
+        <v>0.1687434367276728</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.354818327053308</v>
+        <v>0.1687434367276728</v>
       </c>
       <c r="AK13" t="n">
         <v>0.01</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.215589063204825</v>
+        <v>0.1489124411717057</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.215589063204825</v>
+        <v>0.1489124411717057</v>
       </c>
       <c r="AN13" t="n">
         <v>0.01</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.700778187632677</v>
+        <v>0.1921194989420474</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.700778187632677</v>
+        <v>0.1921194989420474</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.01</v>
       </c>
       <c r="AR13" t="n">
-        <v>4.286194978184194</v>
+        <v>0.1981179653853178</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.286194978184194</v>
+        <v>0.1981179653853178</v>
       </c>
       <c r="AT13" t="n">
         <v>0.01</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.434625037707237</v>
+        <v>0.1927800100855529</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.434625037707237</v>
+        <v>0.1927800100855529</v>
       </c>
       <c r="AW13" t="n">
         <v>0.01</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.17013303456828</v>
+        <v>0.1664555932208896</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.17013303456828</v>
+        <v>0.1664555932208896</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.01</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.97311819249345</v>
+        <v>0.2385130777955055</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.97311819249345</v>
+        <v>0.2385130777955055</v>
       </c>
       <c r="BC13" t="n">
         <v>0.01</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.4239994353286283</v>
+        <v>0.1988974979892373</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.4239994353286283</v>
+        <v>0.1988974979892373</v>
       </c>
       <c r="BF13" t="n">
         <v>0.01</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.4342825900088064</v>
+        <v>0.1832922115176916</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.4342825900088064</v>
+        <v>0.1832922115176916</v>
       </c>
       <c r="BI13" t="n">
         <v>0.01</v>

--- a/log/fusion_mask_exp/fusion_mask__results.xlsx
+++ b/log/fusion_mask_exp/fusion_mask__results.xlsx
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.978182065486908</v>
+        <v>2.333608150482178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002</v>
+        <v>0.113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3507266044616699</v>
+        <v>2.733427762985229</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5238180477917195</v>
+        <v>0.4988100039958954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.899</v>
+        <v>0.894</v>
       </c>
       <c r="D3" t="n">
-        <v>59.72834444046021</v>
+        <v>26.27778148651123</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +486,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2836535949632525</v>
+        <v>0.3270631819963455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.927</v>
+        <v>0.919</v>
       </c>
       <c r="D4" t="n">
-        <v>120.9133920669556</v>
+        <v>50.09590339660645</v>
       </c>
     </row>
     <row r="5">
@@ -500,13 +500,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2223801850527525</v>
+        <v>0.2545497868955136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>182.4452257156372</v>
+        <v>73.60329556465149</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1909061444830149</v>
+        <v>0.2252101615816355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.951</v>
+        <v>0.95</v>
       </c>
       <c r="D6" t="n">
-        <v>244.1769952774048</v>
+        <v>98.97563433647156</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1754693427123129</v>
+        <v>0.2071262276172638</v>
       </c>
       <c r="C7" t="n">
-        <v>0.955</v>
+        <v>0.96</v>
       </c>
       <c r="D7" t="n">
-        <v>305.5086863040924</v>
+        <v>126.538822889328</v>
       </c>
     </row>
     <row r="8">
@@ -542,13 +542,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1635935481963679</v>
+        <v>0.1957635482400656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.958</v>
+        <v>0.956</v>
       </c>
       <c r="D8" t="n">
-        <v>368.2126185894012</v>
+        <v>151.1240830421448</v>
       </c>
     </row>
     <row r="9">
@@ -556,13 +556,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1489992190804333</v>
+        <v>0.1879131184518337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.961</v>
+        <v>0.954</v>
       </c>
       <c r="D9" t="n">
-        <v>429.3246812820435</v>
+        <v>176.6887338161469</v>
       </c>
     </row>
     <row r="10">
@@ -570,13 +570,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1431558553734794</v>
+        <v>0.1782870154082775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.966</v>
+        <v>0.956</v>
       </c>
       <c r="D10" t="n">
-        <v>490.1080613136292</v>
+        <v>203.1051652431488</v>
       </c>
     </row>
     <row r="11">
@@ -584,13 +584,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1373877822095528</v>
+        <v>0.1688163021206856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.968</v>
+        <v>0.962</v>
       </c>
       <c r="D11" t="n">
-        <v>550.7176313400269</v>
+        <v>228.484391450882</v>
       </c>
     </row>
     <row r="12">
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1289432278927416</v>
+        <v>0.1586521908547729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.971</v>
+        <v>0.967</v>
       </c>
       <c r="D12" t="n">
-        <v>613.0978894233704</v>
+        <v>253.4986169338226</v>
       </c>
     </row>
   </sheetData>
@@ -630,8 +630,8 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
@@ -1108,181 +1108,181 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06014753699040739</v>
+        <v>0.03418567447370151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06014753699040739</v>
+        <v>0.03418567447370151</v>
       </c>
       <c r="D4" t="n">
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07140147807949689</v>
+        <v>0.03382788003917085</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07140147807949689</v>
+        <v>0.03382788003917085</v>
       </c>
       <c r="G4" t="n">
         <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4437631319835782</v>
+        <v>0.2166200220584869</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4437631319835782</v>
+        <v>0.2166200220584869</v>
       </c>
       <c r="J4" t="n">
         <v>0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3064300647750497</v>
+        <v>0.1383984905621037</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3064300647750497</v>
+        <v>0.1383984905621037</v>
       </c>
       <c r="M4" t="n">
         <v>0.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3955357192270458</v>
+        <v>0.3440431588329375</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3955357192270458</v>
+        <v>0.3440431588329375</v>
       </c>
       <c r="P4" t="n">
         <v>0.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6556902441382408</v>
+        <v>0.4806609792262316</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6556902441382408</v>
+        <v>0.4806609792262316</v>
       </c>
       <c r="S4" t="n">
         <v>0.01</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5495159959048033</v>
+        <v>0.5012381894141436</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5495159959048033</v>
+        <v>0.5012381894141436</v>
       </c>
       <c r="V4" t="n">
         <v>0.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5532662820070982</v>
+        <v>0.4361820013634861</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5532662820070982</v>
+        <v>0.4361820013634861</v>
       </c>
       <c r="Y4" t="n">
         <v>0.01</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7586124319583177</v>
+        <v>0.7054765750467777</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7586124319583177</v>
+        <v>0.7054765750467777</v>
       </c>
       <c r="AB4" t="n">
         <v>0.01</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7572399948537349</v>
+        <v>0.7422345797717571</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7572399948537349</v>
+        <v>0.7422345797717571</v>
       </c>
       <c r="AE4" t="n">
         <v>0.01</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8935408031940461</v>
+        <v>0.7220085097849369</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.8935408031940461</v>
+        <v>0.7220085097849369</v>
       </c>
       <c r="AH4" t="n">
         <v>0.01</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8568799130059779</v>
+        <v>0.9239168462157249</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8568799130059779</v>
+        <v>0.9239168462157249</v>
       </c>
       <c r="AK4" t="n">
         <v>0.01</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.092161597795784</v>
+        <v>0.7737971917912364</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.092161597795784</v>
+        <v>0.7737971917912364</v>
       </c>
       <c r="AN4" t="n">
         <v>0.01</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.107439040243626</v>
+        <v>0.9186517933756113</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.107439040243626</v>
+        <v>0.9186517933756113</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.01</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.325393327474594</v>
+        <v>0.9815927271544933</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.325393327474594</v>
+        <v>0.9815927271544933</v>
       </c>
       <c r="AT4" t="n">
         <v>0.01</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.35020891726017</v>
+        <v>1.110725159049034</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.35020891726017</v>
+        <v>1.110725159049034</v>
       </c>
       <c r="AW4" t="n">
         <v>0.01</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.390337603986263</v>
+        <v>1.195918866991997</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.390337603986263</v>
+        <v>1.195918866991997</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.01</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.393217480480671</v>
+        <v>1.147028218209744</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.393217480480671</v>
+        <v>1.147028218209744</v>
       </c>
       <c r="BC4" t="n">
         <v>0.01</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.553124831020832</v>
+        <v>1.284939730316401</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.553124831020832</v>
+        <v>1.284939730316401</v>
       </c>
       <c r="BF4" t="n">
         <v>0.01</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.528127684891224</v>
+        <v>1.31979440420866</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.528127684891224</v>
+        <v>1.31979440420866</v>
       </c>
       <c r="BI4" t="n">
         <v>0.01</v>
@@ -1293,181 +1293,181 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05104200001325807</v>
+        <v>0.03347083167376695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05104200001325807</v>
+        <v>0.03347083167376695</v>
       </c>
       <c r="D5" t="n">
         <v>0.01</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05242197968938853</v>
+        <v>0.03127919647027738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05242197968938853</v>
+        <v>0.03127919647027738</v>
       </c>
       <c r="G5" t="n">
         <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3944967511482537</v>
+        <v>0.1898948516556993</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3944967511482537</v>
+        <v>0.1898948516556993</v>
       </c>
       <c r="J5" t="n">
         <v>0.01</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2275044413469732</v>
+        <v>0.1332964326511137</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2275044413469732</v>
+        <v>0.1332964326511137</v>
       </c>
       <c r="M5" t="n">
         <v>0.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2529045029729605</v>
+        <v>0.275430568549782</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2529045029729605</v>
+        <v>0.275430568549782</v>
       </c>
       <c r="P5" t="n">
         <v>0.01</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4617268603667617</v>
+        <v>0.4553725380450487</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4617268603667617</v>
+        <v>0.4553725380450487</v>
       </c>
       <c r="S5" t="n">
         <v>0.01</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3321219362411648</v>
+        <v>0.4141326102241873</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3321219362411648</v>
+        <v>0.4141326102241873</v>
       </c>
       <c r="V5" t="n">
         <v>0.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3410472977161407</v>
+        <v>0.3191110512800515</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3410472977161407</v>
+        <v>0.3191110512800515</v>
       </c>
       <c r="Y5" t="n">
         <v>0.01</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5048251240327954</v>
+        <v>0.5647956867143512</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5048251240327954</v>
+        <v>0.5647956867143512</v>
       </c>
       <c r="AB5" t="n">
         <v>0.01</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4885398593172431</v>
+        <v>0.5465052715688944</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4885398593172431</v>
+        <v>0.5465052715688944</v>
       </c>
       <c r="AE5" t="n">
         <v>0.01</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3205362439155579</v>
+        <v>0.5139892118051648</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3205362439155579</v>
+        <v>0.5139892118051648</v>
       </c>
       <c r="AH5" t="n">
         <v>0.01</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.3768088863417506</v>
+        <v>0.55885791875422</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3768088863417506</v>
+        <v>0.55885791875422</v>
       </c>
       <c r="AK5" t="n">
         <v>0.01</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4207298278063536</v>
+        <v>0.3728960366919637</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.4207298278063536</v>
+        <v>0.3728960366919637</v>
       </c>
       <c r="AN5" t="n">
         <v>0.01</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.4610000075772405</v>
+        <v>0.4911895027756691</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.4610000075772405</v>
+        <v>0.4911895027756691</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.01</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.5400493951141834</v>
+        <v>0.4801136028766632</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5400493951141834</v>
+        <v>0.4801136028766632</v>
       </c>
       <c r="AT5" t="n">
         <v>0.01</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.526900806427002</v>
+        <v>0.5454792934656143</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.526900806427002</v>
+        <v>0.5454792934656143</v>
       </c>
       <c r="AW5" t="n">
         <v>0.01</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.4995433424785733</v>
+        <v>0.4909241638705135</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.4995433424785733</v>
+        <v>0.4909241638705135</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.01</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.561392847597599</v>
+        <v>0.5462598912417889</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.561392847597599</v>
+        <v>0.5462598912417889</v>
       </c>
       <c r="BC5" t="n">
         <v>0.01</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.522808076813817</v>
+        <v>0.4562868389487267</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.522808076813817</v>
+        <v>0.4562868389487267</v>
       </c>
       <c r="BF5" t="n">
         <v>0.01</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.5205654244869947</v>
+        <v>0.4609401623159647</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.5205654244869947</v>
+        <v>0.4609401623159647</v>
       </c>
       <c r="BI5" t="n">
         <v>0.01</v>
@@ -1478,181 +1478,181 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04792979831574485</v>
+        <v>0.03455407744564581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04792979831574485</v>
+        <v>0.03455407744564581</v>
       </c>
       <c r="D6" t="n">
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05194483906205278</v>
+        <v>0.0301719508212409</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05194483906205278</v>
+        <v>0.0301719508212409</v>
       </c>
       <c r="G6" t="n">
         <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.325058541726321</v>
+        <v>0.1727189675718546</v>
       </c>
       <c r="I6" t="n">
-        <v>0.325058541726321</v>
+        <v>0.1727189675718546</v>
       </c>
       <c r="J6" t="n">
         <v>0.01</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2104971360508353</v>
+        <v>0.09411102752899751</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2104971360508353</v>
+        <v>0.09411102752899751</v>
       </c>
       <c r="M6" t="n">
         <v>0.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2068868623906747</v>
+        <v>0.2539742588344961</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2068868623906747</v>
+        <v>0.2539742588344961</v>
       </c>
       <c r="P6" t="n">
         <v>0.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4080871859937906</v>
+        <v>0.3820160032436252</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4080871859937906</v>
+        <v>0.3820160032436252</v>
       </c>
       <c r="S6" t="n">
         <v>0.01</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2868231230042875</v>
+        <v>0.3488334714621306</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2868231230042875</v>
+        <v>0.3488334714621306</v>
       </c>
       <c r="V6" t="n">
         <v>0.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3153147042170167</v>
+        <v>0.240800700346008</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3153147042170167</v>
+        <v>0.240800700346008</v>
       </c>
       <c r="Y6" t="n">
         <v>0.01</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4176945437584073</v>
+        <v>0.4873044031485915</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4176945437584073</v>
+        <v>0.4873044031485915</v>
       </c>
       <c r="AB6" t="n">
         <v>0.01</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3707103029638529</v>
+        <v>0.4377941409125924</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3707103029638529</v>
+        <v>0.4377941409125924</v>
       </c>
       <c r="AE6" t="n">
         <v>0.01</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.257805112618953</v>
+        <v>0.4254605072550476</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.257805112618953</v>
+        <v>0.4254605072550476</v>
       </c>
       <c r="AH6" t="n">
         <v>0.01</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.3072873696871102</v>
+        <v>0.4214850561693311</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.3072873696871102</v>
+        <v>0.4214850561693311</v>
       </c>
       <c r="AK6" t="n">
         <v>0.01</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.3000191191770136</v>
+        <v>0.2727473241183907</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.3000191191770136</v>
+        <v>0.2727473241183907</v>
       </c>
       <c r="AN6" t="n">
         <v>0.01</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3419897490367294</v>
+        <v>0.372029759734869</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.3419897490367294</v>
+        <v>0.372029759734869</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.396935632713139</v>
+        <v>0.3449703238159418</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.396935632713139</v>
+        <v>0.3449703238159418</v>
       </c>
       <c r="AT6" t="n">
         <v>0.01</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.365496244058013</v>
+        <v>0.4184533170983195</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.365496244058013</v>
+        <v>0.4184533170983195</v>
       </c>
       <c r="AW6" t="n">
         <v>0.01</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.3516352274268866</v>
+        <v>0.3750093924999237</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.3516352274268866</v>
+        <v>0.3750093924999237</v>
       </c>
       <c r="AZ6" t="n">
         <v>0.01</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.4220027647912502</v>
+        <v>0.4119805148802698</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4220027647912502</v>
+        <v>0.4119805148802698</v>
       </c>
       <c r="BC6" t="n">
         <v>0.01</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.373892757743597</v>
+        <v>0.3289932776615024</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.373892757743597</v>
+        <v>0.3289932776615024</v>
       </c>
       <c r="BF6" t="n">
         <v>0.01</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.364715605378151</v>
+        <v>0.3511513290926814</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.364715605378151</v>
+        <v>0.3511513290926814</v>
       </c>
       <c r="BI6" t="n">
         <v>0.01</v>
@@ -1663,181 +1663,181 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04828442298923619</v>
+        <v>0.03489872823876795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04828442298923619</v>
+        <v>0.03489872823876795</v>
       </c>
       <c r="D7" t="n">
         <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04991326122602913</v>
+        <v>0.02995686856593238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04991326122602913</v>
+        <v>0.02995686856593238</v>
       </c>
       <c r="G7" t="n">
         <v>0.01</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3253877873159945</v>
+        <v>0.1682413028506562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3253877873159945</v>
+        <v>0.1682413028506562</v>
       </c>
       <c r="J7" t="n">
         <v>0.01</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1955376554094255</v>
+        <v>0.09888589059119113</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1955376554094255</v>
+        <v>0.09888589059119113</v>
       </c>
       <c r="M7" t="n">
         <v>0.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1755081106582657</v>
+        <v>0.212708950927481</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1755081106582657</v>
+        <v>0.212708950927481</v>
       </c>
       <c r="P7" t="n">
         <v>0.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3896353888139129</v>
+        <v>0.359869576357305</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3896353888139129</v>
+        <v>0.359869576357305</v>
       </c>
       <c r="S7" t="n">
         <v>0.01</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2446833074465394</v>
+        <v>0.3070162349566817</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2446833074465394</v>
+        <v>0.3070162349566817</v>
       </c>
       <c r="V7" t="n">
         <v>0.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0.272764929421246</v>
+        <v>0.2163651967933402</v>
       </c>
       <c r="X7" t="n">
-        <v>0.272764929421246</v>
+        <v>0.2163651967933402</v>
       </c>
       <c r="Y7" t="n">
         <v>0.01</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3703440760448575</v>
+        <v>0.4180769126862288</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3703440760448575</v>
+        <v>0.4180769126862288</v>
       </c>
       <c r="AB7" t="n">
         <v>0.01</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3194160296116024</v>
+        <v>0.3749525689706206</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3194160296116024</v>
+        <v>0.3749525689706206</v>
       </c>
       <c r="AE7" t="n">
         <v>0.01</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2061908257100731</v>
+        <v>0.3764732589945197</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2061908257100731</v>
+        <v>0.3764732589945197</v>
       </c>
       <c r="AH7" t="n">
         <v>0.01</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2569249112904072</v>
+        <v>0.3505803319439292</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2569249112904072</v>
+        <v>0.3505803319439292</v>
       </c>
       <c r="AK7" t="n">
         <v>0.01</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.2382160053215921</v>
+        <v>0.2349436822813004</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.2382160053215921</v>
+        <v>0.2349436822813004</v>
       </c>
       <c r="AN7" t="n">
         <v>0.01</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2971300339885056</v>
+        <v>0.3264922304451466</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.2971300339885056</v>
+        <v>0.3264922304451466</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.01</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3288255263864994</v>
+        <v>0.2761520317010582</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3288255263864994</v>
+        <v>0.2761520317010582</v>
       </c>
       <c r="AT7" t="n">
         <v>0.01</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3121898581832647</v>
+        <v>0.3425756146386266</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.3121898581832647</v>
+        <v>0.3425756146386266</v>
       </c>
       <c r="AW7" t="n">
         <v>0.01</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2797871082276106</v>
+        <v>0.2935199320875108</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.2797871082276106</v>
+        <v>0.2935199320875108</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.3463143357634544</v>
+        <v>0.3570432352647185</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.3463143357634544</v>
+        <v>0.3570432352647185</v>
       </c>
       <c r="BC7" t="n">
         <v>0.01</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.3009979116171598</v>
+        <v>0.2742347257211805</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.3009979116171598</v>
+        <v>0.2742347257211805</v>
       </c>
       <c r="BF7" t="n">
         <v>0.01</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.2836982613243162</v>
+        <v>0.2892749590612948</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2836982613243162</v>
+        <v>0.2892749590612948</v>
       </c>
       <c r="BI7" t="n">
         <v>0.01</v>
@@ -1848,181 +1848,181 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04807762281736359</v>
+        <v>0.03463085920084268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04807762281736359</v>
+        <v>0.03463085920084268</v>
       </c>
       <c r="D8" t="n">
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05024443919362966</v>
+        <v>0.03142421773489332</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05024443919362966</v>
+        <v>0.03142421773489332</v>
       </c>
       <c r="G8" t="n">
         <v>0.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2783882156014442</v>
+        <v>0.1776707377145067</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2783882156014442</v>
+        <v>0.1776707377145067</v>
       </c>
       <c r="J8" t="n">
         <v>0.01</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1741900969296694</v>
+        <v>0.09243761233054101</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1741900969296694</v>
+        <v>0.09243761233054101</v>
       </c>
       <c r="M8" t="n">
         <v>0.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1680941513041034</v>
+        <v>0.1942640144750476</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1680941513041034</v>
+        <v>0.1942640144750476</v>
       </c>
       <c r="P8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3724288242124021</v>
+        <v>0.3179764316231012</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3724288242124021</v>
+        <v>0.3179764316231012</v>
       </c>
       <c r="S8" t="n">
         <v>0.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2214607188757509</v>
+        <v>0.265618836376816</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2214607188757509</v>
+        <v>0.265618836376816</v>
       </c>
       <c r="V8" t="n">
         <v>0.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2633426773920655</v>
+        <v>0.1917518833838403</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2633426773920655</v>
+        <v>0.1917518833838403</v>
       </c>
       <c r="Y8" t="n">
         <v>0.01</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3366344833932817</v>
+        <v>0.3970485298708081</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3366344833932817</v>
+        <v>0.3970485298708081</v>
       </c>
       <c r="AB8" t="n">
         <v>0.01</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2830952266603708</v>
+        <v>0.3083253630436957</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2830952266603708</v>
+        <v>0.3083253630436957</v>
       </c>
       <c r="AE8" t="n">
         <v>0.01</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2037134007271379</v>
+        <v>0.3592412364669144</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2037134007271379</v>
+        <v>0.3592412364669144</v>
       </c>
       <c r="AH8" t="n">
         <v>0.01</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2225820533372462</v>
+        <v>0.2880062826350331</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2225820533372462</v>
+        <v>0.2880062826350331</v>
       </c>
       <c r="AK8" t="n">
         <v>0.01</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.223618943579495</v>
+        <v>0.2016456120554358</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.223618943579495</v>
+        <v>0.2016456120554358</v>
       </c>
       <c r="AN8" t="n">
         <v>0.01</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2583843360096216</v>
+        <v>0.2623918419145048</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.2583843360096216</v>
+        <v>0.2623918419145048</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.01</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2761865734495222</v>
+        <v>0.2398393557779491</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.2761865734495222</v>
+        <v>0.2398393557779491</v>
       </c>
       <c r="AT8" t="n">
         <v>0.01</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2565519574284554</v>
+        <v>0.2945512966252863</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.2565519574284554</v>
+        <v>0.2945512966252863</v>
       </c>
       <c r="AW8" t="n">
         <v>0.01</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.2351087371632457</v>
+        <v>0.2560869170166552</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.2351087371632457</v>
+        <v>0.2560869170166552</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.01</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3047992927022278</v>
+        <v>0.2861374376155436</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.3047992927022278</v>
+        <v>0.2861374376155436</v>
       </c>
       <c r="BC8" t="n">
         <v>0.01</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.2619254058040679</v>
+        <v>0.2353165884874761</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.2619254058040679</v>
+        <v>0.2353165884874761</v>
       </c>
       <c r="BF8" t="n">
         <v>0.01</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.2489789072424173</v>
+        <v>0.2428749136440456</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2489789072424173</v>
+        <v>0.2428749136440456</v>
       </c>
       <c r="BI8" t="n">
         <v>0.01</v>
@@ -2033,181 +2033,181 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0488125846737239</v>
+        <v>0.03490095150162233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0488125846737239</v>
+        <v>0.03490095150162233</v>
       </c>
       <c r="D9" t="n">
         <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05003951482794946</v>
+        <v>0.02941669786116108</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05003951482794946</v>
+        <v>0.02941669786116108</v>
       </c>
       <c r="G9" t="n">
         <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2810194313153624</v>
+        <v>0.1618191034160554</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2810194313153624</v>
+        <v>0.1618191034160554</v>
       </c>
       <c r="J9" t="n">
         <v>0.01</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1610854897275567</v>
+        <v>0.08461115681333467</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1610854897275567</v>
+        <v>0.08461115681333467</v>
       </c>
       <c r="M9" t="n">
         <v>0.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0.157562535176985</v>
+        <v>0.1738044869573787</v>
       </c>
       <c r="O9" t="n">
-        <v>0.157562535176985</v>
+        <v>0.1738044869573787</v>
       </c>
       <c r="P9" t="n">
         <v>0.01</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3412730580568313</v>
+        <v>0.2917859276384115</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3412730580568313</v>
+        <v>0.2917859276384115</v>
       </c>
       <c r="S9" t="n">
         <v>0.01</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2076365932263434</v>
+        <v>0.2542705989256501</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2076365932263434</v>
+        <v>0.2542705989256501</v>
       </c>
       <c r="V9" t="n">
         <v>0.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2514892035722733</v>
+        <v>0.1693566415272653</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2514892035722733</v>
+        <v>0.1693566415272653</v>
       </c>
       <c r="Y9" t="n">
         <v>0.01</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3005771384201944</v>
+        <v>0.3914459137991071</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3005771384201944</v>
+        <v>0.3914459137991071</v>
       </c>
       <c r="AB9" t="n">
         <v>0.01</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2727513920795173</v>
+        <v>0.280703572165221</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2727513920795173</v>
+        <v>0.280703572165221</v>
       </c>
       <c r="AE9" t="n">
         <v>0.01</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.179319666698575</v>
+        <v>0.3216186544299126</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.179319666698575</v>
+        <v>0.3216186544299126</v>
       </c>
       <c r="AH9" t="n">
         <v>0.01</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.2196092778723687</v>
+        <v>0.2617716246843338</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2196092778723687</v>
+        <v>0.2617716246843338</v>
       </c>
       <c r="AK9" t="n">
         <v>0.01</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2063040877506137</v>
+        <v>0.1820281570870429</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.2063040877506137</v>
+        <v>0.1820281570870429</v>
       </c>
       <c r="AN9" t="n">
         <v>0.01</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.2334155552089214</v>
+        <v>0.241145825702697</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2334155552089214</v>
+        <v>0.241145825702697</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2580042435601353</v>
+        <v>0.217991919349879</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.2580042435601353</v>
+        <v>0.217991919349879</v>
       </c>
       <c r="AT9" t="n">
         <v>0.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2356738087069243</v>
+        <v>0.2783899983204901</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.2356738087069243</v>
+        <v>0.2783899983204901</v>
       </c>
       <c r="AW9" t="n">
         <v>0.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.213868332831189</v>
+        <v>0.2186869978904724</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.213868332831189</v>
+        <v>0.2186869978904724</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.2983747135847807</v>
+        <v>0.2831300440430641</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.2983747135847807</v>
+        <v>0.2831300440430641</v>
       </c>
       <c r="BC9" t="n">
         <v>0.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.2527417399920523</v>
+        <v>0.2294597943499684</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.2527417399920523</v>
+        <v>0.2294597943499684</v>
       </c>
       <c r="BF9" t="n">
         <v>0.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.2347372314892709</v>
+        <v>0.2356684264726937</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.2347372314892709</v>
+        <v>0.2356684264726937</v>
       </c>
       <c r="BI9" t="n">
         <v>0.01</v>
@@ -2218,181 +2218,181 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04982883628166746</v>
+        <v>0.03404235211011837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04982883628166746</v>
+        <v>0.03404235211011837</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0479453919021762</v>
+        <v>0.02973701727605658</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0479453919021762</v>
+        <v>0.02973701727605658</v>
       </c>
       <c r="G10" t="n">
         <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2324883794225752</v>
+        <v>0.1424484501453117</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2324883794225752</v>
+        <v>0.1424484501453117</v>
       </c>
       <c r="J10" t="n">
         <v>0.01</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1462188521679491</v>
+        <v>0.08143714148318396</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1462188521679491</v>
+        <v>0.08143714148318396</v>
       </c>
       <c r="M10" t="n">
         <v>0.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1447351135266945</v>
+        <v>0.1647417911980301</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1447351135266945</v>
+        <v>0.1647417911980301</v>
       </c>
       <c r="P10" t="n">
         <v>0.01</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3126433138083666</v>
+        <v>0.2630238459445536</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3126433138083666</v>
+        <v>0.2630238459445536</v>
       </c>
       <c r="S10" t="n">
         <v>0.01</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1897681236732751</v>
+        <v>0.2179470940493047</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1897681236732751</v>
+        <v>0.2179470940493047</v>
       </c>
       <c r="V10" t="n">
         <v>0.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2126074181869626</v>
+        <v>0.1428121619205922</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2126074181869626</v>
+        <v>0.1428121619205922</v>
       </c>
       <c r="Y10" t="n">
         <v>0.01</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2776640149950981</v>
+        <v>0.3490846766158938</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2776640149950981</v>
+        <v>0.3490846766158938</v>
       </c>
       <c r="AB10" t="n">
         <v>0.01</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2521195360273123</v>
+        <v>0.2596128974296152</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2521195360273123</v>
+        <v>0.2596128974296152</v>
       </c>
       <c r="AE10" t="n">
         <v>0.01</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.172347279433161</v>
+        <v>0.2680730884522199</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.172347279433161</v>
+        <v>0.2680730884522199</v>
       </c>
       <c r="AH10" t="n">
         <v>0.01</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2071684232540429</v>
+        <v>0.2345087707787752</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.2071684232540429</v>
+        <v>0.2345087707787752</v>
       </c>
       <c r="AK10" t="n">
         <v>0.01</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.198547470998019</v>
+        <v>0.1712320637237281</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.198547470998019</v>
+        <v>0.1712320637237281</v>
       </c>
       <c r="AN10" t="n">
         <v>0.01</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.220667910464108</v>
+        <v>0.220408482607454</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.220667910464108</v>
+        <v>0.220408482607454</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.01</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.2243565365858376</v>
+        <v>0.1927956437505782</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.2243565365858376</v>
+        <v>0.1927956437505782</v>
       </c>
       <c r="AT10" t="n">
         <v>0.01</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.2284717382863164</v>
+        <v>0.2554294977523386</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.2284717382863164</v>
+        <v>0.2554294977523386</v>
       </c>
       <c r="AW10" t="n">
         <v>0.01</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.2145446559041738</v>
+        <v>0.2326134078577161</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.2145446559041738</v>
+        <v>0.2326134078577161</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.01</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.2810016184672713</v>
+        <v>0.2661473553441465</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.2810016184672713</v>
+        <v>0.2661473553441465</v>
       </c>
       <c r="BC10" t="n">
         <v>0.01</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.2371941284649074</v>
+        <v>0.2265630646981299</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.2371941284649074</v>
+        <v>0.2265630646981299</v>
       </c>
       <c r="BF10" t="n">
         <v>0.01</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.2126012794859707</v>
+        <v>0.2434256369061768</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.2126012794859707</v>
+        <v>0.2434256369061768</v>
       </c>
       <c r="BI10" t="n">
         <v>0.01</v>
@@ -2403,181 +2403,181 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04588924734911416</v>
+        <v>0.03448625717603136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04588924734911416</v>
+        <v>0.03448625717603136</v>
       </c>
       <c r="D11" t="n">
         <v>0.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04692922414949862</v>
+        <v>0.02996702497301158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04692922414949862</v>
+        <v>0.02996702497301158</v>
       </c>
       <c r="G11" t="n">
         <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2314123923517764</v>
+        <v>0.1326050885673612</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2314123923517764</v>
+        <v>0.1326050885673612</v>
       </c>
       <c r="J11" t="n">
         <v>0.01</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1708251308253966</v>
+        <v>0.08185433453822043</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1708251308253966</v>
+        <v>0.08185433453822043</v>
       </c>
       <c r="M11" t="n">
         <v>0.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1311899391259067</v>
+        <v>0.1482319265464321</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1311899391259067</v>
+        <v>0.1482319265464321</v>
       </c>
       <c r="P11" t="n">
         <v>0.01</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2954400381818414</v>
+        <v>0.2491249051503837</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2954400381818414</v>
+        <v>0.2491249051503837</v>
       </c>
       <c r="S11" t="n">
         <v>0.01</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1912001938745379</v>
+        <v>0.2159848692454398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1912001938745379</v>
+        <v>0.2159848692454398</v>
       </c>
       <c r="V11" t="n">
         <v>0.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2046135112643242</v>
+        <v>0.1377233077737037</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2046135112643242</v>
+        <v>0.1377233077737037</v>
       </c>
       <c r="Y11" t="n">
         <v>0.01</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2930162642337382</v>
+        <v>0.3224314589425921</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2930162642337382</v>
+        <v>0.3224314589425921</v>
       </c>
       <c r="AB11" t="n">
         <v>0.01</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2471968636661768</v>
+        <v>0.2273215293698013</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2471968636661768</v>
+        <v>0.2273215293698013</v>
       </c>
       <c r="AE11" t="n">
         <v>0.01</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1635245823953301</v>
+        <v>0.2673846427723766</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1635245823953301</v>
+        <v>0.2673846427723766</v>
       </c>
       <c r="AH11" t="n">
         <v>0.01</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1901966619864106</v>
+        <v>0.207369735930115</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1901966619864106</v>
+        <v>0.207369735930115</v>
       </c>
       <c r="AK11" t="n">
         <v>0.01</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1700015987735242</v>
+        <v>0.1528588336659595</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1700015987735242</v>
+        <v>0.1528588336659595</v>
       </c>
       <c r="AN11" t="n">
         <v>0.01</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2003376496769488</v>
+        <v>0.2127121027559042</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.2003376496769488</v>
+        <v>0.2127121027559042</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.01</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.220291754361242</v>
+        <v>0.1825162856094539</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.220291754361242</v>
+        <v>0.1825162856094539</v>
       </c>
       <c r="AT11" t="n">
         <v>0.01</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2174145906791091</v>
+        <v>0.2440970674902201</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.2174145906791091</v>
+        <v>0.2440970674902201</v>
       </c>
       <c r="AW11" t="n">
         <v>0.01</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1914329430088401</v>
+        <v>0.2138355594407767</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.1914329430088401</v>
+        <v>0.2138355594407767</v>
       </c>
       <c r="AZ11" t="n">
         <v>0.01</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.2579870909359306</v>
+        <v>0.2641002904996276</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.2579870909359306</v>
+        <v>0.2641002904996276</v>
       </c>
       <c r="BC11" t="n">
         <v>0.01</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2196529859211296</v>
+        <v>0.211870947368443</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.2196529859211296</v>
+        <v>0.211870947368443</v>
       </c>
       <c r="BF11" t="n">
         <v>0.01</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2005179010890424</v>
+        <v>0.2200363748148084</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.2005179010890424</v>
+        <v>0.2200363748148084</v>
       </c>
       <c r="BI11" t="n">
         <v>0.01</v>
@@ -2588,181 +2588,181 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04630899740732275</v>
+        <v>0.03373206890595611</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04630899740732275</v>
+        <v>0.03373206890595611</v>
       </c>
       <c r="D12" t="n">
         <v>0.01</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0465684973745374</v>
+        <v>0.02914293134293985</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0465684973745374</v>
+        <v>0.02914293134293985</v>
       </c>
       <c r="G12" t="n">
         <v>0.01</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2439461927860975</v>
+        <v>0.1607314772251993</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2439461927860975</v>
+        <v>0.1607314772251993</v>
       </c>
       <c r="J12" t="n">
         <v>0.01</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1470931681152433</v>
+        <v>0.07707248461083509</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1470931681152433</v>
+        <v>0.07707248461083509</v>
       </c>
       <c r="M12" t="n">
         <v>0.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1290358391357586</v>
+        <v>0.1335510178189725</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1290358391357586</v>
+        <v>0.1335510178189725</v>
       </c>
       <c r="P12" t="n">
         <v>0.01</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2728751264885068</v>
+        <v>0.2285029834508896</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2728751264885068</v>
+        <v>0.2285029834508896</v>
       </c>
       <c r="S12" t="n">
         <v>0.01</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1781331705488265</v>
+        <v>0.2097255392791703</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1781331705488265</v>
+        <v>0.2097255392791703</v>
       </c>
       <c r="V12" t="n">
         <v>0.01</v>
       </c>
       <c r="W12" t="n">
-        <v>0.205954830320552</v>
+        <v>0.1212133270455524</v>
       </c>
       <c r="X12" t="n">
-        <v>0.205954830320552</v>
+        <v>0.1212133270455524</v>
       </c>
       <c r="Y12" t="n">
         <v>0.01</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.26019800696522</v>
+        <v>0.2959716984629631</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.26019800696522</v>
+        <v>0.2959716984629631</v>
       </c>
       <c r="AB12" t="n">
         <v>0.01</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2089007105864585</v>
+        <v>0.229027086738497</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2089007105864585</v>
+        <v>0.229027086738497</v>
       </c>
       <c r="AE12" t="n">
         <v>0.01</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1645719822589308</v>
+        <v>0.2503520353138447</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.1645719822589308</v>
+        <v>0.2503520353138447</v>
       </c>
       <c r="AH12" t="n">
         <v>0.01</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1854393772128969</v>
+        <v>0.194417467135936</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.1854393772128969</v>
+        <v>0.194417467135936</v>
       </c>
       <c r="AK12" t="n">
         <v>0.01</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1647039160691202</v>
+        <v>0.148284836160019</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.1647039160691202</v>
+        <v>0.148284836160019</v>
       </c>
       <c r="AN12" t="n">
         <v>0.01</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1972702405415475</v>
+        <v>0.1891143626207486</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1972702405415475</v>
+        <v>0.1891143626207486</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.01</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.1979410807788372</v>
+        <v>0.1723564340360463</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1979410807788372</v>
+        <v>0.1723564340360463</v>
       </c>
       <c r="AT12" t="n">
         <v>0.01</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.2151300870068371</v>
+        <v>0.2265325716510415</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.2151300870068371</v>
+        <v>0.2265325716510415</v>
       </c>
       <c r="AW12" t="n">
         <v>0.01</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1770608016848564</v>
+        <v>0.1911706039309502</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1770608016848564</v>
+        <v>0.1911706039309502</v>
       </c>
       <c r="AZ12" t="n">
         <v>0.01</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.245133321583271</v>
+        <v>0.2374751812964678</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.245133321583271</v>
+        <v>0.2374751812964678</v>
       </c>
       <c r="BC12" t="n">
         <v>0.01</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.2103609955497086</v>
+        <v>0.1910699914768338</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.2103609955497086</v>
+        <v>0.1910699914768338</v>
       </c>
       <c r="BF12" t="n">
         <v>0.01</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.191329475864768</v>
+        <v>0.2074045326188207</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.191329475864768</v>
+        <v>0.2074045326188207</v>
       </c>
       <c r="BI12" t="n">
         <v>0.01</v>
@@ -2773,181 +2773,181 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04857849030318903</v>
+        <v>0.03479283555323491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04857849030318903</v>
+        <v>0.03479283555323491</v>
       </c>
       <c r="D13" t="n">
         <v>0.01</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04666651550738607</v>
+        <v>0.02851018953457242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04666651550738607</v>
+        <v>0.02851018953457242</v>
       </c>
       <c r="G13" t="n">
         <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2170288735255599</v>
+        <v>0.1496738344756886</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2170288735255599</v>
+        <v>0.1496738344756886</v>
       </c>
       <c r="J13" t="n">
         <v>0.01</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1389484750339761</v>
+        <v>0.06768839948228561</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1389484750339761</v>
+        <v>0.06768839948228561</v>
       </c>
       <c r="M13" t="n">
         <v>0.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0.129974394547753</v>
+        <v>0.1292271821107715</v>
       </c>
       <c r="O13" t="n">
-        <v>0.129974394547753</v>
+        <v>0.1292271821107715</v>
       </c>
       <c r="P13" t="n">
         <v>0.01</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2863707925193012</v>
+        <v>0.2199040927551687</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2863707925193012</v>
+        <v>0.2199040927551687</v>
       </c>
       <c r="S13" t="n">
         <v>0.01</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1454487769771367</v>
+        <v>0.1812612313218415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1454487769771367</v>
+        <v>0.1812612313218415</v>
       </c>
       <c r="V13" t="n">
         <v>0.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1862287904508412</v>
+        <v>0.1128701999597251</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1862287904508412</v>
+        <v>0.1128701999597251</v>
       </c>
       <c r="Y13" t="n">
         <v>0.01</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2463963505253196</v>
+        <v>0.273812643494457</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2463963505253196</v>
+        <v>0.273812643494457</v>
       </c>
       <c r="AB13" t="n">
         <v>0.01</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2225310262292624</v>
+        <v>0.206180787589401</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.2225310262292624</v>
+        <v>0.206180787589401</v>
       </c>
       <c r="AE13" t="n">
         <v>0.01</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1465656055882573</v>
+        <v>0.2461464341916144</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1465656055882573</v>
+        <v>0.2461464341916144</v>
       </c>
       <c r="AH13" t="n">
         <v>0.01</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1687434367276728</v>
+        <v>0.1764529004320502</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1687434367276728</v>
+        <v>0.1764529004320502</v>
       </c>
       <c r="AK13" t="n">
         <v>0.01</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1489124411717057</v>
+        <v>0.1327735627349466</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1489124411717057</v>
+        <v>0.1327735627349466</v>
       </c>
       <c r="AN13" t="n">
         <v>0.01</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1921194989420474</v>
+        <v>0.1808583852089941</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1921194989420474</v>
+        <v>0.1808583852089941</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.01</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.1981179653853178</v>
+        <v>0.1504174895165488</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.1981179653853178</v>
+        <v>0.1504174895165488</v>
       </c>
       <c r="AT13" t="n">
         <v>0.01</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1927800100855529</v>
+        <v>0.2159368254616857</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1927800100855529</v>
+        <v>0.2159368254616857</v>
       </c>
       <c r="AW13" t="n">
         <v>0.01</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1664555932208896</v>
+        <v>0.1782873895484954</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1664555932208896</v>
+        <v>0.1782873895484954</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.01</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.2385130777955055</v>
+        <v>0.2174487632792443</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2385130777955055</v>
+        <v>0.2174487632792443</v>
       </c>
       <c r="BC13" t="n">
         <v>0.01</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.1988974979892373</v>
+        <v>0.1953858588822186</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.1988974979892373</v>
+        <v>0.1953858588822186</v>
       </c>
       <c r="BF13" t="n">
         <v>0.01</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1832922115176916</v>
+        <v>0.1896792900469154</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.1832922115176916</v>
+        <v>0.1896792900469154</v>
       </c>
       <c r="BI13" t="n">
         <v>0.01</v>
